--- a/test_gaussian_y_data_BACKUP.xlsx
+++ b/test_gaussian_y_data_BACKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candace_chung/Desktop/Candace Chung Files/ICL/Academics/Year 4/MSci Project/code/MSci_Atrial_Fib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21ABE0-21B1-974E-BDD2-834CD6C4941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C3D7D7-D9AB-A642-891D-126BED3FDF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,16 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -407,5105 +402,5412 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-5.1814948905969722E-2</v>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4.0704161573491771</v>
+        <v>0.2409494594215027</v>
       </c>
       <c r="C2">
-        <v>7.9508167870648947</v>
+        <v>3.5579018162990068</v>
       </c>
       <c r="D2">
-        <v>12.0666538113834</v>
+        <v>8.0345678975206312</v>
       </c>
       <c r="E2">
-        <v>-0.48046397523701401</v>
+        <v>11.591115742489979</v>
       </c>
       <c r="F2">
-        <v>4.264460162707211</v>
+        <v>-0.35355405240311261</v>
       </c>
       <c r="G2">
-        <v>7.7404411696468616</v>
+        <v>4.0978494588046521</v>
       </c>
       <c r="H2">
-        <v>11.59112160618786</v>
+        <v>7.5940428282461756</v>
       </c>
       <c r="I2">
-        <v>-0.41342254551446778</v>
+        <v>11.53142738809332</v>
       </c>
       <c r="J2">
-        <v>4.3417518266261412</v>
+        <v>0.43641894729716341</v>
       </c>
       <c r="K2">
-        <v>8.338342478882252</v>
+        <v>4.3523645611388684</v>
       </c>
       <c r="L2">
-        <v>12.06047826563251</v>
+        <v>7.7752811618432274</v>
       </c>
       <c r="M2">
-        <v>1.56902562561082E-2</v>
+        <v>11.599055153131051</v>
       </c>
       <c r="N2">
-        <v>4.2126002852975892</v>
+        <v>-0.1249357177140132</v>
       </c>
       <c r="O2">
-        <v>8.1264944246334565</v>
+        <v>4.0269765258956083</v>
       </c>
       <c r="P2">
-        <v>12.20622829866643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3.6915333457608002E-2</v>
+        <v>8.2540600277018363</v>
+      </c>
+      <c r="Q2">
+        <v>12.091967430999651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3.8724601428671508</v>
+        <v>0.2402551819736379</v>
       </c>
       <c r="C3">
-        <v>8.4938088217028298</v>
+        <v>4.172228180543966</v>
       </c>
       <c r="D3">
-        <v>12.129779311509489</v>
+        <v>7.8844501817605099</v>
       </c>
       <c r="E3">
-        <v>-0.31978415869398152</v>
+        <v>11.85303937184826</v>
       </c>
       <c r="F3">
-        <v>3.811658741579429</v>
+        <v>0.32959672215589181</v>
       </c>
       <c r="G3">
-        <v>7.5561092595924064</v>
+        <v>3.8783726363329039</v>
       </c>
       <c r="H3">
-        <v>12.05238001017532</v>
+        <v>8.1612563640600388</v>
       </c>
       <c r="I3">
-        <v>-0.49131461821073558</v>
+        <v>12.43401601525812</v>
       </c>
       <c r="J3">
-        <v>4.215278827625597</v>
+        <v>-0.26546462370133628</v>
       </c>
       <c r="K3">
-        <v>8.0049560475608743</v>
+        <v>4.3526314423602566</v>
       </c>
       <c r="L3">
-        <v>12.294557006420231</v>
+        <v>8.1727737216320104</v>
       </c>
       <c r="M3">
-        <v>0.32483956104148032</v>
+        <v>11.978284713197141</v>
       </c>
       <c r="N3">
-        <v>4.1604799491092859</v>
+        <v>6.2847031223589589E-4</v>
       </c>
       <c r="O3">
-        <v>7.8453403188091464</v>
+        <v>3.7944548883564102</v>
       </c>
       <c r="P3">
-        <v>11.65207224720444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.28644682052136472</v>
+        <v>7.8622913996269306</v>
+      </c>
+      <c r="Q3">
+        <v>11.98570142177118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4.0117261264094193</v>
+        <v>-8.2573990761498406E-2</v>
       </c>
       <c r="C4">
-        <v>8.4826454563102232</v>
+        <v>3.8533372270381001</v>
       </c>
       <c r="D4">
-        <v>12.38373861473948</v>
+        <v>7.5251477187875473</v>
       </c>
       <c r="E4">
-        <v>0.44729310940633882</v>
+        <v>12.390401943827809</v>
       </c>
       <c r="F4">
-        <v>4.3264215803386907</v>
+        <v>-0.40254182947464001</v>
       </c>
       <c r="G4">
-        <v>8.2882685356747263</v>
+        <v>4.3319650018588858</v>
       </c>
       <c r="H4">
-        <v>12.188708911543159</v>
+        <v>8.1945995638691755</v>
       </c>
       <c r="I4">
-        <v>5.7173598207093002E-2</v>
+        <v>12.421015115312469</v>
       </c>
       <c r="J4">
-        <v>3.7532178459416761</v>
+        <v>0.42889835938783938</v>
       </c>
       <c r="K4">
-        <v>7.6789934074848976</v>
+        <v>4.3223341203766781</v>
       </c>
       <c r="L4">
-        <v>11.635697528233679</v>
+        <v>7.972394984414013</v>
       </c>
       <c r="M4">
-        <v>9.9637674007810983E-2</v>
+        <v>11.883458792568179</v>
       </c>
       <c r="N4">
-        <v>3.979604334661587</v>
+        <v>-8.1669246753313773E-2</v>
       </c>
       <c r="O4">
-        <v>7.9552008194264827</v>
+        <v>3.9103698558739919</v>
       </c>
       <c r="P4">
-        <v>12.20255588007103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.16657350953983949</v>
+        <v>8.0576955338361138</v>
+      </c>
+      <c r="Q4">
+        <v>12.386036541915979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4.0919440528465749</v>
+        <v>-7.5642950012326349E-2</v>
       </c>
       <c r="C5">
-        <v>8.4057379983130289</v>
+        <v>3.5489216419172549</v>
       </c>
       <c r="D5">
-        <v>11.644161553362631</v>
+        <v>8.0407905528437293</v>
       </c>
       <c r="E5">
-        <v>-7.5211145711425731E-2</v>
+        <v>11.92324650222873</v>
       </c>
       <c r="F5">
-        <v>4.0778036497736982</v>
+        <v>0.26411667398498978</v>
       </c>
       <c r="G5">
-        <v>8.4284838778677837</v>
+        <v>4.1435545581704201</v>
       </c>
       <c r="H5">
-        <v>12.238967502477299</v>
+        <v>7.9870748822580531</v>
       </c>
       <c r="I5">
-        <v>-0.30027353524728662</v>
+        <v>11.656687286069999</v>
       </c>
       <c r="J5">
-        <v>4.3415468824151944</v>
+        <v>-0.12531443948528509</v>
       </c>
       <c r="K5">
-        <v>8.4180468501794774</v>
+        <v>4.0819748263447266</v>
       </c>
       <c r="L5">
-        <v>11.73170589577269</v>
+        <v>7.7206050015354517</v>
       </c>
       <c r="M5">
-        <v>-0.2341723103095591</v>
+        <v>11.68212715831911</v>
       </c>
       <c r="N5">
-        <v>4.4585509606144429</v>
+        <v>-0.18275279343218581</v>
       </c>
       <c r="O5">
-        <v>8.2133525305165467</v>
+        <v>3.8426663186234689</v>
       </c>
       <c r="P5">
-        <v>11.572245567127201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.13671475251570889</v>
+        <v>8.1928201108143242</v>
+      </c>
+      <c r="Q5">
+        <v>11.57966843146249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3.92517266389557</v>
+        <v>0.47688782136079161</v>
       </c>
       <c r="C6">
-        <v>7.7634612161484888</v>
+        <v>4.0145809691089704</v>
       </c>
       <c r="D6">
-        <v>11.50056344086186</v>
+        <v>8.396517819266144</v>
       </c>
       <c r="E6">
-        <v>-0.44709066479816451</v>
+        <v>11.50145384896655</v>
       </c>
       <c r="F6">
-        <v>4.399638737714163</v>
+        <v>-0.3043035499260921</v>
       </c>
       <c r="G6">
-        <v>8.1000019061725865</v>
+        <v>3.8565512117120839</v>
       </c>
       <c r="H6">
-        <v>12.123651262782801</v>
+        <v>7.7698892571257696</v>
       </c>
       <c r="I6">
-        <v>0.20194686340363571</v>
+        <v>11.878554713133401</v>
       </c>
       <c r="J6">
-        <v>3.8777528036870281</v>
+        <v>-0.42740821615117941</v>
       </c>
       <c r="K6">
-        <v>7.9648807194885798</v>
+        <v>3.676713095826539</v>
       </c>
       <c r="L6">
-        <v>11.622829774216321</v>
+        <v>8.4917338810582681</v>
       </c>
       <c r="M6">
-        <v>0.37449075820942967</v>
+        <v>12.07497788828818</v>
       </c>
       <c r="N6">
-        <v>4.1679758541171319</v>
+        <v>0.1664697768136347</v>
       </c>
       <c r="O6">
-        <v>8.0342218777671413</v>
+        <v>3.9627613445106999</v>
       </c>
       <c r="P6">
-        <v>12.333896865393291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-2.3138564112026531E-2</v>
+        <v>8.0067014639666443</v>
+      </c>
+      <c r="Q6">
+        <v>11.812893638813501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>4.4601984512083117</v>
+        <v>-2.843235711505232E-2</v>
       </c>
       <c r="C7">
-        <v>8.112374249304688</v>
+        <v>4.0178606285509879</v>
       </c>
       <c r="D7">
-        <v>11.77623129777753</v>
+        <v>7.6121301269661572</v>
       </c>
       <c r="E7">
-        <v>-6.9664003259966134E-2</v>
+        <v>12.245395009555709</v>
       </c>
       <c r="F7">
-        <v>4.4645199250616781</v>
+        <v>5.8155576844253647E-2</v>
       </c>
       <c r="G7">
-        <v>8.2578100872773987</v>
+        <v>4.3852190185987521</v>
       </c>
       <c r="H7">
-        <v>12.47265020890638</v>
+        <v>7.9612441593498522</v>
       </c>
       <c r="I7">
-        <v>-3.2391477955989727E-2</v>
+        <v>11.89791445298277</v>
       </c>
       <c r="J7">
-        <v>3.7671028473234438</v>
+        <v>0.38063713517177028</v>
       </c>
       <c r="K7">
-        <v>8.4396012270994198</v>
+        <v>4.0412418561629977</v>
       </c>
       <c r="L7">
-        <v>11.77245332435554</v>
+        <v>7.701162389024188</v>
       </c>
       <c r="M7">
-        <v>-0.42067196296484333</v>
+        <v>12.34330432735719</v>
       </c>
       <c r="N7">
-        <v>3.9679578514284461</v>
+        <v>-0.40515844855341998</v>
       </c>
       <c r="O7">
-        <v>7.976805535211505</v>
+        <v>4.3655423412117029</v>
       </c>
       <c r="P7">
-        <v>11.699834138739069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9.9373495938792411E-2</v>
+        <v>7.8557323628700892</v>
+      </c>
+      <c r="Q7">
+        <v>11.531861549040119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4.1263808166993838</v>
+        <v>-3.171761627773773E-3</v>
       </c>
       <c r="C8">
-        <v>7.5943709979669114</v>
+        <v>3.5411717958320672</v>
       </c>
       <c r="D8">
-        <v>12.08173402010536</v>
+        <v>8.4135457500863229</v>
       </c>
       <c r="E8">
-        <v>-0.28697544069994568</v>
+        <v>11.53769729536466</v>
       </c>
       <c r="F8">
-        <v>3.6101136537813949</v>
+        <v>0.32981547332245598</v>
       </c>
       <c r="G8">
-        <v>7.8115205333786939</v>
+        <v>3.8404929222216131</v>
       </c>
       <c r="H8">
-        <v>12.277874681869029</v>
+        <v>7.7655332548568401</v>
       </c>
       <c r="I8">
-        <v>0.14842378766608111</v>
+        <v>11.61825194232433</v>
       </c>
       <c r="J8">
-        <v>3.5807545690993079</v>
+        <v>-0.2244346026327966</v>
       </c>
       <c r="K8">
-        <v>8.0280989881942286</v>
+        <v>4.3567700948645411</v>
       </c>
       <c r="L8">
-        <v>11.82510614616419</v>
+        <v>7.5146982726935034</v>
       </c>
       <c r="M8">
-        <v>-0.24903897755125601</v>
+        <v>11.87927152059328</v>
       </c>
       <c r="N8">
-        <v>3.9624503957876209</v>
+        <v>0.31981498106449319</v>
       </c>
       <c r="O8">
-        <v>8.1414397172284065</v>
+        <v>3.8655069479998998</v>
       </c>
       <c r="P8">
-        <v>11.93898292788329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2.4559919783045951E-3</v>
+        <v>8.4091518913228267</v>
+      </c>
+      <c r="Q8">
+        <v>12.095609774895671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.467682020940134</v>
+        <v>-4.1390677141378007E-2</v>
       </c>
       <c r="C9">
-        <v>8.1800084750989548</v>
+        <v>3.9702704085893989</v>
       </c>
       <c r="D9">
-        <v>11.9702688733431</v>
+        <v>7.5060568608933531</v>
       </c>
       <c r="E9">
-        <v>0.188598709461442</v>
+        <v>11.96193772987556</v>
       </c>
       <c r="F9">
-        <v>3.699246961272614</v>
+        <v>7.6209512464198048E-2</v>
       </c>
       <c r="G9">
-        <v>8.38854558966203</v>
+        <v>3.995874839643542</v>
       </c>
       <c r="H9">
-        <v>11.87856566365209</v>
+        <v>7.9847369928063614</v>
       </c>
       <c r="I9">
-        <v>0.1085397233595173</v>
+        <v>11.56708937983583</v>
       </c>
       <c r="J9">
-        <v>3.8840243985206451</v>
+        <v>-0.10526029504791121</v>
       </c>
       <c r="K9">
-        <v>8.0026069754392726</v>
+        <v>3.7939397536100898</v>
       </c>
       <c r="L9">
-        <v>11.57618274696785</v>
+        <v>8.0815088782214488</v>
       </c>
       <c r="M9">
-        <v>0.15897930617074649</v>
+        <v>11.61744166213057</v>
       </c>
       <c r="N9">
-        <v>4.3173600132734284</v>
+        <v>-0.18361847685788571</v>
       </c>
       <c r="O9">
-        <v>8.3314551540141206</v>
+        <v>4.2791907922653163</v>
       </c>
       <c r="P9">
-        <v>11.859815294638411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.22352151142649329</v>
+        <v>7.5000893354108076</v>
+      </c>
+      <c r="Q9">
+        <v>12.422862258810239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4.3772714656977909</v>
+        <v>-0.17084487186128841</v>
       </c>
       <c r="C10">
-        <v>8.0313360346666052</v>
+        <v>4.3947020993360999</v>
       </c>
       <c r="D10">
-        <v>12.073003783715819</v>
+        <v>8.4195212723391712</v>
       </c>
       <c r="E10">
-        <v>1.5903157494098871E-2</v>
+        <v>11.58470780225508</v>
       </c>
       <c r="F10">
-        <v>4.2175337032453708</v>
+        <v>-0.22404156181675111</v>
       </c>
       <c r="G10">
-        <v>8.495146796527079</v>
+        <v>3.6636545023855329</v>
       </c>
       <c r="H10">
-        <v>12.215210283840801</v>
+        <v>7.7293078039403156</v>
       </c>
       <c r="I10">
-        <v>9.6841450953419672E-2</v>
+        <v>11.6899052102389</v>
       </c>
       <c r="J10">
-        <v>4.3069046014805199</v>
+        <v>7.1499845903879589E-2</v>
       </c>
       <c r="K10">
-        <v>7.8999542475451152</v>
+        <v>3.9924541351591221</v>
       </c>
       <c r="L10">
-        <v>12.020319772253741</v>
+        <v>7.5393626179370239</v>
       </c>
       <c r="M10">
-        <v>-9.0233321676317479E-2</v>
+        <v>12.35796423291354</v>
       </c>
       <c r="N10">
-        <v>4.2652779819223969</v>
+        <v>0.40204584767176638</v>
       </c>
       <c r="O10">
-        <v>8.1328620613332436</v>
+        <v>4.0698791880100211</v>
       </c>
       <c r="P10">
-        <v>12.083602376272999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-0.31038731958250959</v>
+        <v>7.5703823812041398</v>
+      </c>
+      <c r="Q10">
+        <v>11.838236679713431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3.9711812780417759</v>
+        <v>0.28482858391082339</v>
       </c>
       <c r="C11">
-        <v>8.3305809303687379</v>
+        <v>3.841865691269704</v>
       </c>
       <c r="D11">
-        <v>12.188647690191029</v>
+        <v>7.8194850071207558</v>
       </c>
       <c r="E11">
-        <v>-0.32694701123339948</v>
+        <v>11.573576694183251</v>
       </c>
       <c r="F11">
-        <v>3.8946797685550019</v>
+        <v>-0.20575899667160991</v>
       </c>
       <c r="G11">
-        <v>7.7290435509024036</v>
+        <v>3.800149911846145</v>
       </c>
       <c r="H11">
-        <v>11.67308670253883</v>
+        <v>8.3577687200016992</v>
       </c>
       <c r="I11">
-        <v>-0.20451590831408731</v>
+        <v>11.839573282025009</v>
       </c>
       <c r="J11">
-        <v>3.5277889321124238</v>
+        <v>5.0632549599103349E-3</v>
       </c>
       <c r="K11">
-        <v>8.2028249066911201</v>
+        <v>3.5010354319335621</v>
       </c>
       <c r="L11">
-        <v>12.43321443973919</v>
+        <v>7.6818136756610347</v>
       </c>
       <c r="M11">
-        <v>-0.21396194825608589</v>
+        <v>11.96228297824535</v>
       </c>
       <c r="N11">
-        <v>3.971176194784527</v>
+        <v>-0.16628069779227311</v>
       </c>
       <c r="O11">
-        <v>7.8043323772585698</v>
+        <v>3.5830150792341668</v>
       </c>
       <c r="P11">
-        <v>12.39929625209423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.33755349069914392</v>
+        <v>7.8234583343374409</v>
+      </c>
+      <c r="Q11">
+        <v>11.953286956726521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>3.7700961988436972</v>
+        <v>-0.26272660558891908</v>
       </c>
       <c r="C12">
-        <v>8.3859717456795302</v>
+        <v>4.4850996233176543</v>
       </c>
       <c r="D12">
-        <v>12.26149857500172</v>
+        <v>7.6327434171333053</v>
       </c>
       <c r="E12">
-        <v>6.9601944349193645E-2</v>
+        <v>12.46937968752802</v>
       </c>
       <c r="F12">
-        <v>4.0453153906578656</v>
+        <v>-0.39604334931464358</v>
       </c>
       <c r="G12">
-        <v>8.4388945246146392</v>
+        <v>3.6681040019298998</v>
       </c>
       <c r="H12">
-        <v>12.45614837995948</v>
+        <v>7.9462772205087431</v>
       </c>
       <c r="I12">
-        <v>0.25611679236705498</v>
+        <v>11.86865268246998</v>
       </c>
       <c r="J12">
-        <v>4.2583043050894824</v>
+        <v>5.8180939650593122E-2</v>
       </c>
       <c r="K12">
-        <v>7.8066802905443424</v>
+        <v>3.96836083480293</v>
       </c>
       <c r="L12">
-        <v>12.312816842986489</v>
+        <v>7.6577657656551326</v>
       </c>
       <c r="M12">
-        <v>0.2050323588680644</v>
+        <v>11.86065804277812</v>
       </c>
       <c r="N12">
-        <v>3.7836240424539689</v>
+        <v>0.47783406057463618</v>
       </c>
       <c r="O12">
-        <v>8.3251621149208308</v>
+        <v>3.606568099188864</v>
       </c>
       <c r="P12">
-        <v>12.120398369060389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.32173592966232789</v>
+        <v>8.1392092323149221</v>
+      </c>
+      <c r="Q12">
+        <v>12.26884168386926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>4.3153366909999828</v>
+        <v>-0.33286880881265318</v>
       </c>
       <c r="C13">
-        <v>8.0349243745443211</v>
+        <v>3.9875561463281728</v>
       </c>
       <c r="D13">
-        <v>12.43664472519319</v>
+        <v>8.4980586284969259</v>
       </c>
       <c r="E13">
-        <v>0.1166391250102442</v>
+        <v>12.415037109445731</v>
       </c>
       <c r="F13">
-        <v>4.2540624206682258</v>
+        <v>-0.32257912005426381</v>
       </c>
       <c r="G13">
-        <v>8.0240687806419206</v>
+        <v>3.7064273377762471</v>
       </c>
       <c r="H13">
-        <v>12.075595270991821</v>
+        <v>7.9190249802386408</v>
       </c>
       <c r="I13">
-        <v>-0.44732957871633749</v>
+        <v>11.775418177424379</v>
       </c>
       <c r="J13">
-        <v>4.2137809675119984</v>
+        <v>-0.34103989973816712</v>
       </c>
       <c r="K13">
-        <v>7.9719298619114838</v>
+        <v>4.0135920486827166</v>
       </c>
       <c r="L13">
-        <v>11.885408217451291</v>
+        <v>8.3257929466220073</v>
       </c>
       <c r="M13">
-        <v>-0.1956106345284869</v>
+        <v>12.3389092199009</v>
       </c>
       <c r="N13">
-        <v>3.8016906854006969</v>
+        <v>0.31669663008159521</v>
       </c>
       <c r="O13">
-        <v>8.073022433258993</v>
+        <v>3.660585421247371</v>
       </c>
       <c r="P13">
-        <v>12.152706741015621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>-5.4912593216279171E-2</v>
+        <v>8.2048265352218532</v>
+      </c>
+      <c r="Q13">
+        <v>12.18040662572648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>4.116754935849972</v>
+        <v>0.26424910585655659</v>
       </c>
       <c r="C14">
-        <v>7.6796297422324162</v>
+        <v>3.5329359545332442</v>
       </c>
       <c r="D14">
-        <v>11.98585992941679</v>
+        <v>8.4417565864885304</v>
       </c>
       <c r="E14">
-        <v>0.17255352902146051</v>
+        <v>12.246163631333619</v>
       </c>
       <c r="F14">
-        <v>4.0915946645430266</v>
+        <v>-0.38049588477838919</v>
       </c>
       <c r="G14">
-        <v>8.0543718051877615</v>
+        <v>4.4966342160930566</v>
       </c>
       <c r="H14">
-        <v>11.9306816346242</v>
+        <v>8.1207212939257669</v>
       </c>
       <c r="I14">
-        <v>0.46315465806512979</v>
+        <v>12.336285389307649</v>
       </c>
       <c r="J14">
-        <v>4.0841009996043587</v>
+        <v>0.40409055117782872</v>
       </c>
       <c r="K14">
-        <v>8.1207859337312289</v>
+        <v>3.5380933516152959</v>
       </c>
       <c r="L14">
-        <v>11.667531655900371</v>
+        <v>8.1835752646786659</v>
       </c>
       <c r="M14">
-        <v>-0.1001794674054398</v>
+        <v>12.438042902807201</v>
       </c>
       <c r="N14">
-        <v>3.5994751282530939</v>
+        <v>0.39956594263542361</v>
       </c>
       <c r="O14">
-        <v>8.097157954875156</v>
+        <v>3.7396975652059501</v>
       </c>
       <c r="P14">
-        <v>11.71096545194435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2.9700400346611259E-2</v>
+        <v>8.1935607226194929</v>
+      </c>
+      <c r="Q14">
+        <v>11.585138829911379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>3.5008989011931329</v>
+        <v>-3.8464334331777317E-2</v>
       </c>
       <c r="C15">
-        <v>8.0853433939789561</v>
+        <v>4.2802254771336203</v>
       </c>
       <c r="D15">
-        <v>11.62196758585339</v>
+        <v>8.3179046121147806</v>
       </c>
       <c r="E15">
-        <v>-0.23164061257691451</v>
+        <v>12.187241474388269</v>
       </c>
       <c r="F15">
-        <v>3.7148902814330178</v>
+        <v>0.24759446793811979</v>
       </c>
       <c r="G15">
-        <v>8.2951768782662931</v>
+        <v>3.7635816053396391</v>
       </c>
       <c r="H15">
-        <v>12.37319082022815</v>
+        <v>7.8683585865132466</v>
       </c>
       <c r="I15">
-        <v>-0.1318258181982985</v>
+        <v>11.5030900003644</v>
       </c>
       <c r="J15">
-        <v>3.9175927009380058</v>
+        <v>-0.42744310717868672</v>
       </c>
       <c r="K15">
-        <v>7.8230326830518209</v>
+        <v>3.8268403260357351</v>
       </c>
       <c r="L15">
-        <v>11.62004346680339</v>
+        <v>7.9263505032408954</v>
       </c>
       <c r="M15">
-        <v>-0.15184428699825081</v>
+        <v>11.951285821597461</v>
       </c>
       <c r="N15">
-        <v>3.6478967304009871</v>
+        <v>0.45798920093412882</v>
       </c>
       <c r="O15">
-        <v>8.4933898616294439</v>
+        <v>3.5067408060598289</v>
       </c>
       <c r="P15">
-        <v>12.08102009146798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>6.7183354923553651E-2</v>
+        <v>7.655466564264569</v>
+      </c>
+      <c r="Q15">
+        <v>12.261247198343961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>4.2527843979847297</v>
+        <v>-0.1029590016024049</v>
       </c>
       <c r="C16">
-        <v>7.7869501008707198</v>
+        <v>3.5109559863463988</v>
       </c>
       <c r="D16">
-        <v>11.78158141900829</v>
+        <v>8.4812123356008708</v>
       </c>
       <c r="E16">
-        <v>0.40022897997437662</v>
+        <v>12.090281565366199</v>
       </c>
       <c r="F16">
-        <v>3.676010279673418</v>
+        <v>-0.3578438996148805</v>
       </c>
       <c r="G16">
-        <v>7.9532872412492637</v>
+        <v>4.1992139038095084</v>
       </c>
       <c r="H16">
-        <v>11.50085443101543</v>
+        <v>8.0909641985902478</v>
       </c>
       <c r="I16">
-        <v>0.19419146479998139</v>
+        <v>12.41354485358521</v>
       </c>
       <c r="J16">
-        <v>3.7533994471126628</v>
+        <v>-0.17239565088108619</v>
       </c>
       <c r="K16">
-        <v>8.2712302561004876</v>
+        <v>3.9411389571770612</v>
       </c>
       <c r="L16">
-        <v>12.33691570050471</v>
+        <v>7.6139234099219744</v>
       </c>
       <c r="M16">
-        <v>0.17916296720414249</v>
+        <v>12.03851075831194</v>
       </c>
       <c r="N16">
-        <v>3.5165185549692501</v>
+        <v>0.38600960951767188</v>
       </c>
       <c r="O16">
-        <v>8.2262949304283666</v>
+        <v>3.5386702002777861</v>
       </c>
       <c r="P16">
-        <v>11.854939743516971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>-0.19054261776502879</v>
+        <v>7.5118163914163558</v>
+      </c>
+      <c r="Q16">
+        <v>12.24531468604029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>3.6839904791254501</v>
+        <v>0.48029088091065159</v>
       </c>
       <c r="C17">
-        <v>7.8047197171420839</v>
+        <v>3.6182593311073088</v>
       </c>
       <c r="D17">
-        <v>11.548468120689311</v>
+        <v>8.2258621039735758</v>
       </c>
       <c r="E17">
-        <v>0.1235593422104216</v>
+        <v>11.97284588110459</v>
       </c>
       <c r="F17">
-        <v>3.6247750391296498</v>
+        <v>-0.1545701247312147</v>
       </c>
       <c r="G17">
-        <v>7.5633389802743611</v>
+        <v>4.3696592685207252</v>
       </c>
       <c r="H17">
-        <v>11.787593831487451</v>
+        <v>8.12250223967858</v>
       </c>
       <c r="I17">
-        <v>0.23303466807339551</v>
+        <v>11.873158221920169</v>
       </c>
       <c r="J17">
-        <v>4.1359463299653854</v>
+        <v>-4.0232200506670202E-3</v>
       </c>
       <c r="K17">
-        <v>8.2709125521044644</v>
+        <v>3.807202913095026</v>
       </c>
       <c r="L17">
-        <v>11.542808859640809</v>
+        <v>7.7647781318046611</v>
       </c>
       <c r="M17">
-        <v>-0.41083419201592608</v>
+        <v>12.055875026954579</v>
       </c>
       <c r="N17">
-        <v>4.3583306070936993</v>
+        <v>-0.26049587071802133</v>
       </c>
       <c r="O17">
-        <v>8.005437270429697</v>
+        <v>3.512247235988029</v>
       </c>
       <c r="P17">
-        <v>11.92952566830672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-0.21597236851937129</v>
+        <v>8.4944214336537485</v>
+      </c>
+      <c r="Q17">
+        <v>12.452643455572121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>3.515143795898187</v>
+        <v>0.43725650602389532</v>
       </c>
       <c r="C18">
-        <v>7.8325861480655741</v>
+        <v>3.8468330914450841</v>
       </c>
       <c r="D18">
-        <v>12.206481973950231</v>
+        <v>8.1550852766684994</v>
       </c>
       <c r="E18">
-        <v>0.22468679193869001</v>
+        <v>12.24538007102457</v>
       </c>
       <c r="F18">
-        <v>3.9700466143597271</v>
+        <v>-0.39476724057292262</v>
       </c>
       <c r="G18">
-        <v>8.2434867142086237</v>
+        <v>4.2861161055288832</v>
       </c>
       <c r="H18">
-        <v>12.24751210625246</v>
+        <v>8.297368359150985</v>
       </c>
       <c r="I18">
-        <v>4.1039027676049611E-2</v>
+        <v>11.71331715773867</v>
       </c>
       <c r="J18">
-        <v>3.9027154494597718</v>
+        <v>-0.38614342949472957</v>
       </c>
       <c r="K18">
-        <v>7.8987284086541534</v>
+        <v>3.9446404755075828</v>
       </c>
       <c r="L18">
-        <v>12.249010167450869</v>
+        <v>7.7323707012638216</v>
       </c>
       <c r="M18">
-        <v>-0.49423260280270148</v>
+        <v>11.770190609057281</v>
       </c>
       <c r="N18">
-        <v>4.061854538146549</v>
+        <v>-0.45602020573321411</v>
       </c>
       <c r="O18">
-        <v>7.535009805926455</v>
+        <v>4.4144989074587633</v>
       </c>
       <c r="P18">
-        <v>12.175746181825319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>-0.30601537529690859</v>
+        <v>8.2946471431363733</v>
+      </c>
+      <c r="Q18">
+        <v>12.425476478625651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>3.7300177502917018</v>
+        <v>0.26708193827477078</v>
       </c>
       <c r="C19">
-        <v>7.7492315731507668</v>
+        <v>4.3561224284537596</v>
       </c>
       <c r="D19">
-        <v>12.435324776225711</v>
+        <v>7.7271625690555918</v>
       </c>
       <c r="E19">
-        <v>-0.41392516416924652</v>
+        <v>11.78669580043031</v>
       </c>
       <c r="F19">
-        <v>4.0467372776332882</v>
+        <v>-0.43593552924540258</v>
       </c>
       <c r="G19">
-        <v>7.8763231649648677</v>
+        <v>3.9451174564699598</v>
       </c>
       <c r="H19">
-        <v>11.61905464656326</v>
+        <v>7.9799794692907593</v>
       </c>
       <c r="I19">
-        <v>-1.398064751199701E-2</v>
+        <v>11.565287716999819</v>
       </c>
       <c r="J19">
-        <v>4.1082200215545646</v>
+        <v>-0.31961313361524712</v>
       </c>
       <c r="K19">
-        <v>7.9308088351515886</v>
+        <v>3.8534925130937632</v>
       </c>
       <c r="L19">
-        <v>11.855885384091341</v>
+        <v>7.929423032924567</v>
       </c>
       <c r="M19">
-        <v>0.36225226974190128</v>
+        <v>12.14142926697903</v>
       </c>
       <c r="N19">
-        <v>3.8130977299134088</v>
+        <v>-0.43129421723712019</v>
       </c>
       <c r="O19">
-        <v>8.1846827957646262</v>
+        <v>4.344236920793989</v>
       </c>
       <c r="P19">
-        <v>11.55441977789714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3.0868766726854121E-2</v>
+        <v>7.5929589824207318</v>
+      </c>
+      <c r="Q19">
+        <v>11.938665256223111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>3.6667466453352051</v>
+        <v>2.7031014313845799E-2</v>
       </c>
       <c r="C20">
-        <v>8.3809504166814719</v>
+        <v>3.8598623138115111</v>
       </c>
       <c r="D20">
-        <v>11.941640392767921</v>
+        <v>8.1170682097478064</v>
       </c>
       <c r="E20">
-        <v>-6.036455386799533E-2</v>
+        <v>12.04920797428251</v>
       </c>
       <c r="F20">
-        <v>3.7245411570825491</v>
+        <v>6.3751557073792875E-2</v>
       </c>
       <c r="G20">
-        <v>8.436267536332009</v>
+        <v>3.7926856289638131</v>
       </c>
       <c r="H20">
-        <v>11.616342303131709</v>
+        <v>7.9030152227100912</v>
       </c>
       <c r="I20">
-        <v>-0.34056912654784088</v>
+        <v>11.856614573121361</v>
       </c>
       <c r="J20">
-        <v>4.2649979450883198</v>
+        <v>0.43957506720481349</v>
       </c>
       <c r="K20">
-        <v>8.0027590249936669</v>
+        <v>3.6206193252679171</v>
       </c>
       <c r="L20">
-        <v>12.329288113198411</v>
+        <v>7.8699765041447014</v>
       </c>
       <c r="M20">
-        <v>0.31677867315685387</v>
+        <v>11.88419502134013</v>
       </c>
       <c r="N20">
-        <v>3.5282131471607259</v>
+        <v>-1.2296678047073459E-3</v>
       </c>
       <c r="O20">
-        <v>8.4839888482685133</v>
+        <v>3.880869402338555</v>
       </c>
       <c r="P20">
-        <v>12.381481155775919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>-0.29882748542672932</v>
+        <v>7.7744517990324304</v>
+      </c>
+      <c r="Q20">
+        <v>12.084320409000901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>4.0245805877383454</v>
+        <v>-0.33731173782404988</v>
       </c>
       <c r="C21">
-        <v>7.6439837960763573</v>
+        <v>4.136678737836025</v>
       </c>
       <c r="D21">
-        <v>12.082182758770109</v>
+        <v>8.3010749255680825</v>
       </c>
       <c r="E21">
-        <v>-4.74909814977722E-2</v>
+        <v>12.05853475640358</v>
       </c>
       <c r="F21">
-        <v>4.4535363275804274</v>
+        <v>-0.18582526887185211</v>
       </c>
       <c r="G21">
-        <v>7.8196773197589717</v>
+        <v>4.4483561290136748</v>
       </c>
       <c r="H21">
-        <v>12.435493446209451</v>
+        <v>7.6571541454805443</v>
       </c>
       <c r="I21">
-        <v>-0.40664209436958138</v>
+        <v>11.67034021913198</v>
       </c>
       <c r="J21">
-        <v>3.697717701433497</v>
+        <v>-0.31572154840235489</v>
       </c>
       <c r="K21">
-        <v>7.9825192400452938</v>
+        <v>3.769162954288189</v>
       </c>
       <c r="L21">
-        <v>11.781699515249899</v>
+        <v>8.3976176369725746</v>
       </c>
       <c r="M21">
-        <v>0.22194829782031139</v>
+        <v>11.678331142530389</v>
       </c>
       <c r="N21">
-        <v>4.4958467243664542</v>
+        <v>-0.25473631423809129</v>
       </c>
       <c r="O21">
-        <v>8.0342107146314277</v>
+        <v>3.563583546282509</v>
       </c>
       <c r="P21">
-        <v>12.39232622588484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>8.290894093957335E-2</v>
+        <v>8.0321343113441337</v>
+      </c>
+      <c r="Q21">
+        <v>12.456752292950821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>3.7158466545062478</v>
+        <v>0.27546597196085459</v>
       </c>
       <c r="C22">
-        <v>8.2157138980283797</v>
+        <v>3.91121736337732</v>
       </c>
       <c r="D22">
-        <v>11.92901075632281</v>
+        <v>7.564540333513591</v>
       </c>
       <c r="E22">
-        <v>0.29024963521644559</v>
+        <v>11.79254336981109</v>
       </c>
       <c r="F22">
-        <v>3.8008989687420609</v>
+        <v>1.414547694783541E-2</v>
       </c>
       <c r="G22">
-        <v>7.8668798541580358</v>
+        <v>3.788404210328904</v>
       </c>
       <c r="H22">
-        <v>11.80731414555844</v>
+        <v>8.3088222463668782</v>
       </c>
       <c r="I22">
-        <v>-0.40979102214217911</v>
+        <v>11.787654227270851</v>
       </c>
       <c r="J22">
-        <v>4.4710335016047464</v>
+        <v>-5.5802271250144697E-2</v>
       </c>
       <c r="K22">
-        <v>8.2473833662644029</v>
+        <v>4.3414489391975861</v>
       </c>
       <c r="L22">
-        <v>12.33092811070974</v>
+        <v>8.3085472985012192</v>
       </c>
       <c r="M22">
-        <v>0.32700673686791287</v>
+        <v>11.788334745300819</v>
       </c>
       <c r="N22">
-        <v>4.4226639261706877</v>
+        <v>0.1874251573168777</v>
       </c>
       <c r="O22">
-        <v>8.1160552605449574</v>
+        <v>3.959948759540675</v>
       </c>
       <c r="P22">
-        <v>12.26142663890975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>-0.43781942515189137</v>
+        <v>7.7201837657442942</v>
+      </c>
+      <c r="Q22">
+        <v>11.73150284503814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>4.3604665077227356</v>
+        <v>-0.18026175613110151</v>
       </c>
       <c r="C23">
-        <v>7.7120817413372507</v>
+        <v>4.1218394095703204</v>
       </c>
       <c r="D23">
-        <v>12.27146646993973</v>
+        <v>7.9828934593504366</v>
       </c>
       <c r="E23">
-        <v>-0.29704058533950228</v>
+        <v>11.93661107006262</v>
       </c>
       <c r="F23">
-        <v>4.4309287174558696</v>
+        <v>0.45079861344529087</v>
       </c>
       <c r="G23">
-        <v>7.8328675476762619</v>
+        <v>4.197738999369979</v>
       </c>
       <c r="H23">
-        <v>11.85397968475705</v>
+        <v>8.1180986962657666</v>
       </c>
       <c r="I23">
-        <v>0.35445086084897193</v>
+        <v>12.06825636297437</v>
       </c>
       <c r="J23">
-        <v>3.7300916736195542</v>
+        <v>0.1053061759791991</v>
       </c>
       <c r="K23">
-        <v>7.5460875045267137</v>
+        <v>4.0346290526129263</v>
       </c>
       <c r="L23">
-        <v>11.902092853521181</v>
+        <v>8.4532132284820332</v>
       </c>
       <c r="M23">
-        <v>0.2029872812340133</v>
+        <v>11.88707900691039</v>
       </c>
       <c r="N23">
-        <v>4.1429445728536063</v>
+        <v>0.1190115705294416</v>
       </c>
       <c r="O23">
-        <v>7.989553652103198</v>
+        <v>4.4528985746236067</v>
       </c>
       <c r="P23">
-        <v>11.765340274476429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>-1.072661615763804E-3</v>
+        <v>8.201817840460393</v>
+      </c>
+      <c r="Q23">
+        <v>11.757269210181059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>3.8244017310038632</v>
+        <v>-5.0988335509505323E-4</v>
       </c>
       <c r="C24">
-        <v>8.3727213848106636</v>
+        <v>4.3784828422280633</v>
       </c>
       <c r="D24">
-        <v>12.235257064348071</v>
+        <v>8.280325823277467</v>
       </c>
       <c r="E24">
-        <v>-0.37021344507019938</v>
+        <v>11.60451532645609</v>
       </c>
       <c r="F24">
-        <v>4.4347890618873009</v>
+        <v>-0.1915844576463526</v>
       </c>
       <c r="G24">
-        <v>8.4139962295059316</v>
+        <v>3.828645445158755</v>
       </c>
       <c r="H24">
-        <v>12.039026947852079</v>
+        <v>7.952908740721166</v>
       </c>
       <c r="I24">
-        <v>-0.22266181072997121</v>
+        <v>11.96489176676025</v>
       </c>
       <c r="J24">
-        <v>3.545919785085403</v>
+        <v>-0.26743246438346019</v>
       </c>
       <c r="K24">
-        <v>7.7048179607034646</v>
+        <v>3.8609820307619591</v>
       </c>
       <c r="L24">
-        <v>12.12256537988862</v>
+        <v>8.2655757729202435</v>
       </c>
       <c r="M24">
-        <v>0.27483231163248989</v>
+        <v>12.11302972152941</v>
       </c>
       <c r="N24">
-        <v>3.8194587126060902</v>
+        <v>-0.35434520511918249</v>
       </c>
       <c r="O24">
-        <v>8.0835255485082165</v>
+        <v>4.1953738544216286</v>
       </c>
       <c r="P24">
-        <v>11.759178475747831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>-0.1198614028603066</v>
+        <v>7.7413628368508789</v>
+      </c>
+      <c r="Q24">
+        <v>12.0570492496994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>3.6090858584007459</v>
+        <v>-0.48572126600339399</v>
       </c>
       <c r="C25">
-        <v>8.1401954775535508</v>
+        <v>4.2921571624718187</v>
       </c>
       <c r="D25">
-        <v>11.97435895023561</v>
+        <v>8.4096747098155102</v>
       </c>
       <c r="E25">
-        <v>0.3017478517083233</v>
+        <v>12.494342462132339</v>
       </c>
       <c r="F25">
-        <v>3.9397894760847372</v>
+        <v>-0.31829023007434792</v>
       </c>
       <c r="G25">
-        <v>8.2050980762329893</v>
+        <v>4.3825098223116736</v>
       </c>
       <c r="H25">
-        <v>11.898382244105431</v>
+        <v>8.0005975903749</v>
       </c>
       <c r="I25">
-        <v>0.35832593169628929</v>
+        <v>12.208778609926069</v>
       </c>
       <c r="J25">
-        <v>4.0927698620806341</v>
+        <v>-0.18472312134904659</v>
       </c>
       <c r="K25">
-        <v>7.7082102608706826</v>
+        <v>4.2290545737129799</v>
       </c>
       <c r="L25">
-        <v>11.85323576920468</v>
+        <v>7.9125149377312329</v>
       </c>
       <c r="M25">
-        <v>-0.27323009394357062</v>
+        <v>11.85246366925985</v>
       </c>
       <c r="N25">
-        <v>3.976620776342628</v>
+        <v>0.40744335147090721</v>
       </c>
       <c r="O25">
-        <v>7.9343945605805546</v>
+        <v>4.0400670237810772</v>
       </c>
       <c r="P25">
-        <v>11.63680705813146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4.6140378597049107E-2</v>
+        <v>7.6026169666267291</v>
+      </c>
+      <c r="Q25">
+        <v>11.57739451242313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>3.91606494193632</v>
+        <v>7.9775876883384722E-2</v>
       </c>
       <c r="C26">
-        <v>8.0494626487739023</v>
+        <v>3.9011065695307869</v>
       </c>
       <c r="D26">
-        <v>11.9257263268497</v>
+        <v>7.9721191298890242</v>
       </c>
       <c r="E26">
-        <v>0.119822830095204</v>
+        <v>12.00808234743703</v>
       </c>
       <c r="F26">
-        <v>3.9180920969011872</v>
+        <v>0.37036056184079458</v>
       </c>
       <c r="G26">
-        <v>8.0819001603881411</v>
+        <v>3.870691514279498</v>
       </c>
       <c r="H26">
-        <v>11.88173281083162</v>
+        <v>7.9259226654236343</v>
       </c>
       <c r="I26">
-        <v>0.25311496882417328</v>
+        <v>12.366980650942841</v>
       </c>
       <c r="J26">
-        <v>4.2060909010339529</v>
+        <v>0.32212163262759558</v>
       </c>
       <c r="K26">
-        <v>7.7734318064579604</v>
+        <v>4.3873347213403537</v>
       </c>
       <c r="L26">
-        <v>11.877998191949199</v>
+        <v>7.8589490575881946</v>
       </c>
       <c r="M26">
-        <v>-4.7650728173526113E-3</v>
+        <v>12.29221190347914</v>
       </c>
       <c r="N26">
-        <v>4.0064401117671</v>
+        <v>0.24388148517816449</v>
       </c>
       <c r="O26">
-        <v>7.669223803713801</v>
+        <v>3.6640083147375262</v>
       </c>
       <c r="P26">
-        <v>12.45238978894251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.32510401584448678</v>
+        <v>7.6750838885826429</v>
+      </c>
+      <c r="Q26">
+        <v>11.94150759033395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>3.754871807494883</v>
+        <v>0.18382922357770401</v>
       </c>
       <c r="C27">
-        <v>8.2105581480223631</v>
+        <v>4.2196564229727063</v>
       </c>
       <c r="D27">
-        <v>12.330481995559129</v>
+        <v>8.0218148054623182</v>
       </c>
       <c r="E27">
-        <v>0.2030574336847154</v>
+        <v>12.4939295057863</v>
       </c>
       <c r="F27">
-        <v>4.3438834481896116</v>
+        <v>-0.40531953868633852</v>
       </c>
       <c r="G27">
-        <v>7.5468520420186778</v>
+        <v>3.8622830018856571</v>
       </c>
       <c r="H27">
-        <v>12.32946706985696</v>
+        <v>7.5428497116597937</v>
       </c>
       <c r="I27">
-        <v>0.45944397179471758</v>
+        <v>12.402122218079739</v>
       </c>
       <c r="J27">
-        <v>3.9946665909323871</v>
+        <v>-0.34021228048441898</v>
       </c>
       <c r="K27">
-        <v>7.5920346454370939</v>
+        <v>3.5506577253182159</v>
       </c>
       <c r="L27">
-        <v>11.969868022546869</v>
+        <v>8.1622031955032579</v>
       </c>
       <c r="M27">
-        <v>0.38243590243081471</v>
+        <v>12.076805739390959</v>
       </c>
       <c r="N27">
-        <v>3.9117668690201848</v>
+        <v>-0.4884949733071684</v>
       </c>
       <c r="O27">
-        <v>8.2030460130067961</v>
+        <v>4.3756234267823331</v>
       </c>
       <c r="P27">
-        <v>12.32419395502431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>-0.30237781767940353</v>
+        <v>7.5895041790667266</v>
+      </c>
+      <c r="Q27">
+        <v>11.71199469281874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>3.9160808617521159</v>
+        <v>0.23826056542873511</v>
       </c>
       <c r="C28">
-        <v>8.389945038813833</v>
+        <v>4.1619415828484936</v>
       </c>
       <c r="D28">
-        <v>11.744953402807671</v>
+        <v>7.8323978967834167</v>
       </c>
       <c r="E28">
-        <v>0.36097393005257461</v>
+        <v>11.78662357276129</v>
       </c>
       <c r="F28">
-        <v>4.2893532636031297</v>
+        <v>-4.8763338620557262E-2</v>
       </c>
       <c r="G28">
-        <v>7.5245379047681071</v>
+        <v>3.7823073661440021</v>
       </c>
       <c r="H28">
-        <v>11.6948180571591</v>
+        <v>7.6784374131201698</v>
       </c>
       <c r="I28">
-        <v>-3.6377482388369908E-2</v>
+        <v>11.968909356595359</v>
       </c>
       <c r="J28">
-        <v>3.9652018165663749</v>
+        <v>0.2450872132915507</v>
       </c>
       <c r="K28">
-        <v>7.5507311521900089</v>
+        <v>4.4774362078491441</v>
       </c>
       <c r="L28">
-        <v>12.11447189888235</v>
+        <v>8.2463697128222773</v>
       </c>
       <c r="M28">
-        <v>0.28286864781110699</v>
+        <v>12.27962193750156</v>
       </c>
       <c r="N28">
-        <v>3.9012869002632442</v>
+        <v>-0.16865488632772249</v>
       </c>
       <c r="O28">
-        <v>7.9229121923502497</v>
+        <v>4.0358888518669094</v>
       </c>
       <c r="P28">
-        <v>11.68900700900342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.31120594879671282</v>
+        <v>7.511386805068982</v>
+      </c>
+      <c r="Q28">
+        <v>12.370403855809959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>4.0314129682767046</v>
+        <v>-0.18900387844111541</v>
       </c>
       <c r="C29">
-        <v>8.4963474649678652</v>
+        <v>4.3646015349146037</v>
       </c>
       <c r="D29">
-        <v>11.86969822303268</v>
+        <v>7.5957633753192324</v>
       </c>
       <c r="E29">
-        <v>-0.19298815721987009</v>
+        <v>11.799978343635329</v>
       </c>
       <c r="F29">
-        <v>3.6461673089467559</v>
+        <v>0.31691942197761708</v>
       </c>
       <c r="G29">
-        <v>7.7790650349841224</v>
+        <v>4.1450167684169239</v>
       </c>
       <c r="H29">
-        <v>12.08787135704196</v>
+        <v>7.581038671258268</v>
       </c>
       <c r="I29">
-        <v>0.38759358268616301</v>
+        <v>12.26826159163898</v>
       </c>
       <c r="J29">
-        <v>4.4021628722701056</v>
+        <v>-0.20554773826863951</v>
       </c>
       <c r="K29">
-        <v>7.8446129780939282</v>
+        <v>4.0639917574814888</v>
       </c>
       <c r="L29">
-        <v>11.907692521136291</v>
+        <v>8.3527352978709413</v>
       </c>
       <c r="M29">
-        <v>-0.19072053216370249</v>
+        <v>11.62410057452847</v>
       </c>
       <c r="N29">
-        <v>4.1719417384844597</v>
+        <v>0.37103586163037899</v>
       </c>
       <c r="O29">
-        <v>7.8438824128925608</v>
+        <v>4.1706505278271919</v>
       </c>
       <c r="P29">
-        <v>11.527995441081909</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>-9.766800775696205E-2</v>
+        <v>8.4970378975578313</v>
+      </c>
+      <c r="Q29">
+        <v>11.593108814582189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>4.2934795998090829</v>
+        <v>-7.5646817617918694E-2</v>
       </c>
       <c r="C30">
-        <v>7.5726773448907121</v>
+        <v>4.2935336197035312</v>
       </c>
       <c r="D30">
-        <v>11.93134858062577</v>
+        <v>8.0140543343104493</v>
       </c>
       <c r="E30">
-        <v>0.32548631761662272</v>
+        <v>12.424757105812869</v>
       </c>
       <c r="F30">
-        <v>4.1639546721095693</v>
+        <v>-8.2738641182145356E-2</v>
       </c>
       <c r="G30">
-        <v>7.8816306966338958</v>
+        <v>3.5527009960349729</v>
       </c>
       <c r="H30">
-        <v>11.719039772469561</v>
+        <v>7.8516125270934687</v>
       </c>
       <c r="I30">
-        <v>-5.1931128157049922E-2</v>
+        <v>11.696738267846451</v>
       </c>
       <c r="J30">
-        <v>4.1817750623030854</v>
+        <v>-0.118010183762311</v>
       </c>
       <c r="K30">
-        <v>8.4426564140557261</v>
+        <v>3.939238658682565</v>
       </c>
       <c r="L30">
-        <v>12.41298229813091</v>
+        <v>7.5943038387224844</v>
       </c>
       <c r="M30">
-        <v>8.9282313663248791E-2</v>
+        <v>11.60389391524545</v>
       </c>
       <c r="N30">
-        <v>4.2631883706945972</v>
+        <v>0.33542496101514541</v>
       </c>
       <c r="O30">
-        <v>7.7046862021565534</v>
+        <v>4.4238509886886499</v>
       </c>
       <c r="P30">
-        <v>11.78592996098185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.13055155856689571</v>
+        <v>7.8812714976338691</v>
+      </c>
+      <c r="Q30">
+        <v>11.732625891452059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>4.4262626815126804</v>
+        <v>0.13460152965798319</v>
       </c>
       <c r="C31">
-        <v>7.8145981211145088</v>
+        <v>4.4348279266398531</v>
       </c>
       <c r="D31">
-        <v>11.66082252519195</v>
+        <v>8.1492672863565883</v>
       </c>
       <c r="E31">
-        <v>0.12677330079986451</v>
+        <v>12.329889702533579</v>
       </c>
       <c r="F31">
-        <v>4.4109884631940499</v>
+        <v>-0.29717735269045692</v>
       </c>
       <c r="G31">
-        <v>7.9810828826574083</v>
+        <v>3.674978670285487</v>
       </c>
       <c r="H31">
-        <v>12.37315226165823</v>
+        <v>7.5114416476918109</v>
       </c>
       <c r="I31">
-        <v>-0.1339616655065157</v>
+        <v>12.075490701428819</v>
       </c>
       <c r="J31">
-        <v>3.7942397516899979</v>
+        <v>-0.22642376837788161</v>
       </c>
       <c r="K31">
-        <v>8.4699757946178256</v>
+        <v>4.1679853712297028</v>
       </c>
       <c r="L31">
-        <v>11.9096100027548</v>
+        <v>7.5997292361903881</v>
       </c>
       <c r="M31">
-        <v>-3.5847875015845958E-2</v>
+        <v>11.605375633339779</v>
       </c>
       <c r="N31">
-        <v>4.3306795270474652</v>
+        <v>0.20597541067233019</v>
       </c>
       <c r="O31">
-        <v>8.3031992619376833</v>
+        <v>4.2108186416297997</v>
       </c>
       <c r="P31">
-        <v>11.837005415958471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>-0.21533646874363321</v>
+        <v>7.6471239548012964</v>
+      </c>
+      <c r="Q31">
+        <v>11.81258712335382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>4.0389759939452778</v>
+        <v>-0.27201451253128628</v>
       </c>
       <c r="C32">
-        <v>8.0218729382459966</v>
+        <v>3.5761586872730509</v>
       </c>
       <c r="D32">
-        <v>12.37587572775575</v>
+        <v>7.7841722067596679</v>
       </c>
       <c r="E32">
-        <v>-0.32304110313419088</v>
+        <v>11.537185523157691</v>
       </c>
       <c r="F32">
-        <v>4.3400796985413708</v>
+        <v>3.043772765375297E-2</v>
       </c>
       <c r="G32">
-        <v>8.0528356408850463</v>
+        <v>3.996479134398911</v>
       </c>
       <c r="H32">
-        <v>11.93186035270905</v>
+        <v>8.3377532313955367</v>
       </c>
       <c r="I32">
-        <v>1.2287480663233369E-2</v>
+        <v>12.2859913625826</v>
       </c>
       <c r="J32">
-        <v>3.7361399326993681</v>
+        <v>0.2811708957810567</v>
       </c>
       <c r="K32">
-        <v>8.3190549450873252</v>
+        <v>4.3546462364380591</v>
       </c>
       <c r="L32">
-        <v>11.504041919526239</v>
+        <v>7.5977166454001344</v>
       </c>
       <c r="M32">
-        <v>0.23814780356170179</v>
+        <v>12.428158629232589</v>
       </c>
       <c r="N32">
-        <v>3.7632445685330431</v>
+        <v>0.1158453402527618</v>
       </c>
       <c r="O32">
-        <v>8.2133096569638511</v>
+        <v>3.7390877842353389</v>
       </c>
       <c r="P32">
-        <v>11.83444465521033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.29475314172721229</v>
+        <v>8.3507830884623075</v>
+      </c>
+      <c r="Q32">
+        <v>12.262226749711139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3.9330543062689749</v>
+        <v>2.5636465960244381E-2</v>
       </c>
       <c r="C33">
-        <v>7.8383820663256838</v>
+        <v>4.4061616934650676</v>
       </c>
       <c r="D33">
-        <v>11.728518743669181</v>
+        <v>7.6668752036962298</v>
       </c>
       <c r="E33">
-        <v>-0.1197373719295515</v>
+        <v>11.843147034841451</v>
       </c>
       <c r="F33">
-        <v>3.5767425578341401</v>
+        <v>0.13088136946414861</v>
       </c>
       <c r="G33">
-        <v>7.9788580640839806</v>
+        <v>3.8726987651051639</v>
       </c>
       <c r="H33">
-        <v>11.536355466274459</v>
+        <v>8.4740998687441564</v>
       </c>
       <c r="I33">
-        <v>-0.1046311021297593</v>
+        <v>12.18494468815061</v>
       </c>
       <c r="J33">
-        <v>3.716276070548072</v>
+        <v>-0.44364572045347839</v>
       </c>
       <c r="K33">
-        <v>8.184350438473162</v>
+        <v>3.6101780249558111</v>
       </c>
       <c r="L33">
-        <v>12.353765063454871</v>
+        <v>7.6527712146592997</v>
       </c>
       <c r="M33">
-        <v>-0.40185288356315152</v>
+        <v>11.60977736688206</v>
       </c>
       <c r="N33">
-        <v>4.1005577311643426</v>
+        <v>-0.214336479242454</v>
       </c>
       <c r="O33">
-        <v>8.2628747111254714</v>
+        <v>4.2744003863783888</v>
       </c>
       <c r="P33">
-        <v>12.48227869021369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.37145356205621111</v>
+        <v>8.4833491467850024</v>
+      </c>
+      <c r="Q33">
+        <v>12.44032457979915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>3.541962448421033</v>
+        <v>-0.44180918789280588</v>
       </c>
       <c r="C34">
-        <v>8.1363489984606598</v>
+        <v>4.2888215252018478</v>
       </c>
       <c r="D34">
-        <v>12.404840281848619</v>
+        <v>7.6691737378116658</v>
       </c>
       <c r="E34">
-        <v>8.2437829008680241E-3</v>
+        <v>11.747764881243221</v>
       </c>
       <c r="F34">
-        <v>4.4238846603704989</v>
+        <v>0.38285504747598631</v>
       </c>
       <c r="G34">
-        <v>8.0577531762673846</v>
+        <v>4.4723783387589053</v>
       </c>
       <c r="H34">
-        <v>11.935775736734429</v>
+        <v>8.4489282614457064</v>
       </c>
       <c r="I34">
-        <v>-0.29027260813565192</v>
+        <v>11.537312864466809</v>
       </c>
       <c r="J34">
-        <v>3.8360424653684788</v>
+        <v>0.28626003387954863</v>
       </c>
       <c r="K34">
-        <v>8.4977059190215609</v>
+        <v>4.4880301126368751</v>
       </c>
       <c r="L34">
-        <v>12.040713873289009</v>
+        <v>8.1928609225050426</v>
       </c>
       <c r="M34">
-        <v>-0.40274121598433821</v>
+        <v>11.625577966372751</v>
       </c>
       <c r="N34">
-        <v>4.022334569595305</v>
+        <v>-0.36251443854397919</v>
       </c>
       <c r="O34">
-        <v>7.9518029274752386</v>
+        <v>4.0953138938966651</v>
       </c>
       <c r="P34">
-        <v>11.88622448877477</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-0.32613130405242491</v>
+        <v>8.05088987287</v>
+      </c>
+      <c r="Q34">
+        <v>11.650148737355879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>4.1905191144539042</v>
+        <v>-2.0762383339326122E-2</v>
       </c>
       <c r="C35">
-        <v>7.6188995454364843</v>
+        <v>3.8227316877373618</v>
       </c>
       <c r="D35">
-        <v>12.444867398421779</v>
+        <v>8.0885277247340106</v>
       </c>
       <c r="E35">
-        <v>0.32919168701067808</v>
+        <v>11.9696123929285</v>
       </c>
       <c r="F35">
-        <v>4.0067696153644938</v>
+        <v>-0.3161270008652235</v>
       </c>
       <c r="G35">
-        <v>8.1533499213863276</v>
+        <v>3.6434626596594359</v>
       </c>
       <c r="H35">
-        <v>12.4013974261533</v>
+        <v>7.7164820111781944</v>
       </c>
       <c r="I35">
-        <v>-0.21615679229449</v>
+        <v>11.721239073102421</v>
       </c>
       <c r="J35">
-        <v>4.0718313320470942</v>
+        <v>-0.39781580645312248</v>
       </c>
       <c r="K35">
-        <v>7.6135432537380954</v>
+        <v>4.4762799635765624</v>
       </c>
       <c r="L35">
-        <v>11.976345150198121</v>
+        <v>8.445942584007371</v>
       </c>
       <c r="M35">
-        <v>-0.31027848715666512</v>
+        <v>12.38396563617664</v>
       </c>
       <c r="N35">
-        <v>4.1795156615343148</v>
+        <v>-0.25901925587933572</v>
       </c>
       <c r="O35">
-        <v>8.0024533691067568</v>
+        <v>4.4672860959961964</v>
       </c>
       <c r="P35">
-        <v>11.718131154002879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1.1040588120172499E-2</v>
+        <v>7.9413307306332213</v>
+      </c>
+      <c r="Q35">
+        <v>11.502720648118819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>3.7959691370358728</v>
+        <v>-1.2225237331387809E-2</v>
       </c>
       <c r="C36">
-        <v>8.0223878126113313</v>
+        <v>3.6929368650521219</v>
       </c>
       <c r="D36">
-        <v>12.34423602393176</v>
+        <v>7.9702073590677758</v>
       </c>
       <c r="E36">
-        <v>-0.45275204132950547</v>
+        <v>11.51443503933573</v>
       </c>
       <c r="F36">
-        <v>3.8272079846591862</v>
+        <v>-4.9947121983570431E-2</v>
       </c>
       <c r="G36">
-        <v>8.2037208026197312</v>
+        <v>4.2115005462395736</v>
       </c>
       <c r="H36">
-        <v>11.51921441451303</v>
+        <v>7.9300172175724786</v>
       </c>
       <c r="I36">
-        <v>-0.1678494736319093</v>
+        <v>12.44521271045914</v>
       </c>
       <c r="J36">
-        <v>4.3653028730973196</v>
+        <v>-0.2353862446663629</v>
       </c>
       <c r="K36">
-        <v>8.4511435910821664</v>
+        <v>4.1508608287701234</v>
       </c>
       <c r="L36">
-        <v>12.37739904034814</v>
+        <v>8.4668378196922678</v>
       </c>
       <c r="M36">
-        <v>-0.32817530871569522</v>
+        <v>11.9138466842296</v>
       </c>
       <c r="N36">
-        <v>3.6558167802682542</v>
+        <v>-5.7521535856380757E-2</v>
       </c>
       <c r="O36">
-        <v>8.4537578691806878</v>
+        <v>3.7185054031451008</v>
       </c>
       <c r="P36">
-        <v>12.083151771390449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>-0.27212997243619552</v>
+        <v>8.4134498763170242</v>
+      </c>
+      <c r="Q36">
+        <v>11.627394212252961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>3.882735346278543</v>
+        <v>-0.2008970459687868</v>
       </c>
       <c r="C37">
-        <v>8.4342170604489795</v>
+        <v>4.0188481111791718</v>
       </c>
       <c r="D37">
-        <v>11.63482954623781</v>
+        <v>7.7547951166154023</v>
       </c>
       <c r="E37">
-        <v>0.40816749254516899</v>
+        <v>11.60430278654141</v>
       </c>
       <c r="F37">
-        <v>3.5712589441387661</v>
+        <v>0.33608840997336048</v>
       </c>
       <c r="G37">
-        <v>7.5164885574627629</v>
+        <v>4.2279527485530934</v>
       </c>
       <c r="H37">
-        <v>12.13255166835383</v>
+        <v>8.2329091871343021</v>
       </c>
       <c r="I37">
-        <v>0.162631604247267</v>
+        <v>11.91420748628876</v>
       </c>
       <c r="J37">
-        <v>4.0567543620303228</v>
+        <v>3.7161672902214622E-2</v>
       </c>
       <c r="K37">
-        <v>8.2171484684980172</v>
+        <v>3.8169332820447752</v>
       </c>
       <c r="L37">
-        <v>11.736359846509011</v>
+        <v>7.7767418302568361</v>
       </c>
       <c r="M37">
-        <v>-0.40382527738451002</v>
+        <v>12.02134427927013</v>
       </c>
       <c r="N37">
-        <v>4.4653907206604027</v>
+        <v>0.31153305253638292</v>
       </c>
       <c r="O37">
-        <v>7.5468383719649346</v>
+        <v>3.9803934386309838</v>
       </c>
       <c r="P37">
-        <v>11.61295449239079</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>-0.41964590428128729</v>
+        <v>8.1855196383169453</v>
+      </c>
+      <c r="Q37">
+        <v>12.17517900483303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>4.4495586665376079</v>
+        <v>0.34781154730133429</v>
       </c>
       <c r="C38">
-        <v>8.2703033114652076</v>
+        <v>3.9107558465818828</v>
       </c>
       <c r="D38">
-        <v>12.022496339166651</v>
+        <v>8.0516479731713115</v>
       </c>
       <c r="E38">
-        <v>0.1849393662980541</v>
+        <v>12.309430578141329</v>
       </c>
       <c r="F38">
-        <v>3.6918402565839061</v>
+        <v>-2.3392656438427809E-2</v>
       </c>
       <c r="G38">
-        <v>8.1010809367205532</v>
+        <v>4.0002364965096744</v>
       </c>
       <c r="H38">
-        <v>11.714840128001359</v>
+        <v>7.6944437596470587</v>
       </c>
       <c r="I38">
-        <v>-0.1002528050255274</v>
+        <v>12.117297946088099</v>
       </c>
       <c r="J38">
-        <v>3.6671610004835191</v>
+        <v>0.47334366355361712</v>
       </c>
       <c r="K38">
-        <v>8.0070360358439032</v>
+        <v>4.042996748156531</v>
       </c>
       <c r="L38">
-        <v>11.897972652136399</v>
+        <v>7.6111939662424186</v>
       </c>
       <c r="M38">
-        <v>0.18410474165528551</v>
+        <v>12.33864253522604</v>
       </c>
       <c r="N38">
-        <v>3.5498031769607432</v>
+        <v>-0.31557762689365171</v>
       </c>
       <c r="O38">
-        <v>7.5012130451024808</v>
+        <v>4.4440477225870518</v>
       </c>
       <c r="P38">
-        <v>11.58647124321724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.13526783161288791</v>
+        <v>8.2317373057514516</v>
+      </c>
+      <c r="Q38">
+        <v>12.017452720491359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>3.780676148460107</v>
+        <v>-0.15787372941353159</v>
       </c>
       <c r="C39">
-        <v>7.8405270551033102</v>
+        <v>4.2424138146438084</v>
       </c>
       <c r="D39">
-        <v>11.8267107951343</v>
+        <v>8.1950303814337051</v>
       </c>
       <c r="E39">
-        <v>-0.35555079695544523</v>
+        <v>11.60232105863564</v>
       </c>
       <c r="F39">
-        <v>3.7727559133016539</v>
+        <v>-0.38822721213065198</v>
       </c>
       <c r="G39">
-        <v>8.0254750778633301</v>
+        <v>3.6116738416383178</v>
       </c>
       <c r="H39">
-        <v>11.75800754393695</v>
+        <v>8.2806211163886001</v>
       </c>
       <c r="I39">
-        <v>0.18989008034040131</v>
+        <v>12.38305763238081</v>
       </c>
       <c r="J39">
-        <v>3.5317598787086242</v>
+        <v>-0.13303313483955409</v>
       </c>
       <c r="K39">
-        <v>7.9688952652619314</v>
+        <v>3.774508751798034</v>
       </c>
       <c r="L39">
-        <v>12.47543587678439</v>
+        <v>7.9487298776339879</v>
       </c>
       <c r="M39">
-        <v>0.25679296202161261</v>
+        <v>12.11613974629388</v>
       </c>
       <c r="N39">
-        <v>4.4879568565886734</v>
+        <v>0.37382399323744059</v>
       </c>
       <c r="O39">
-        <v>8.2541736966322787</v>
+        <v>4.0528271447808422</v>
       </c>
       <c r="P39">
-        <v>11.83410195968438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>-8.9157667251975714E-2</v>
+        <v>7.9972502945267632</v>
+      </c>
+      <c r="Q39">
+        <v>12.01609952016951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>3.850343909118235</v>
+        <v>-0.4916611635868855</v>
       </c>
       <c r="C40">
-        <v>8.2146551142008857</v>
+        <v>3.7080779274225359</v>
       </c>
       <c r="D40">
-        <v>11.908602192974231</v>
+        <v>7.707490334799199</v>
       </c>
       <c r="E40">
-        <v>-4.4385998548984278E-2</v>
+        <v>12.08335185268383</v>
       </c>
       <c r="F40">
-        <v>3.8654709784775831</v>
+        <v>0.27309719281537992</v>
       </c>
       <c r="G40">
-        <v>8.1677780291709876</v>
+        <v>3.571736902846959</v>
       </c>
       <c r="H40">
-        <v>12.291742426189471</v>
+        <v>7.7077094872990264</v>
       </c>
       <c r="I40">
-        <v>-0.35245398208768708</v>
+        <v>12.31637677894615</v>
       </c>
       <c r="J40">
-        <v>3.831592030820242</v>
+        <v>8.7056729959319568E-2</v>
       </c>
       <c r="K40">
-        <v>7.8272439798047797</v>
+        <v>3.6367033244050981</v>
       </c>
       <c r="L40">
-        <v>12.140995303318091</v>
+        <v>8.420964747619351</v>
       </c>
       <c r="M40">
-        <v>5.2790469957885167E-2</v>
+        <v>11.895207928593081</v>
       </c>
       <c r="N40">
-        <v>4.3613732440350264</v>
+        <v>0.18603503983135489</v>
       </c>
       <c r="O40">
-        <v>8.2480348284655722</v>
+        <v>4.3335299137961556</v>
       </c>
       <c r="P40">
-        <v>11.578265677301699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>-0.28786771440341402</v>
+        <v>7.5097041241068032</v>
+      </c>
+      <c r="Q40">
+        <v>12.348274132521251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>3.8069650001001851</v>
+        <v>-4.910919624579313E-2</v>
       </c>
       <c r="C41">
-        <v>8.1702519216345415</v>
+        <v>3.746892051051431</v>
       </c>
       <c r="D41">
-        <v>11.719493328350239</v>
+        <v>7.711521765616153</v>
       </c>
       <c r="E41">
-        <v>-9.1290765623879055E-2</v>
+        <v>11.912896873618401</v>
       </c>
       <c r="F41">
-        <v>4.3213340252622556</v>
+        <v>0.2792638443213914</v>
       </c>
       <c r="G41">
-        <v>8.3338268377603324</v>
+        <v>3.572043596020249</v>
       </c>
       <c r="H41">
-        <v>11.77833791750647</v>
+        <v>8.479414415749261</v>
       </c>
       <c r="I41">
-        <v>-0.39172769168577187</v>
+        <v>11.563825977508319</v>
       </c>
       <c r="J41">
-        <v>4.217946934768066</v>
+        <v>-0.28719690649262491</v>
       </c>
       <c r="K41">
-        <v>8.3070974766745351</v>
+        <v>3.67711880798401</v>
       </c>
       <c r="L41">
-        <v>11.790752436992999</v>
+        <v>7.7932984675020824</v>
       </c>
       <c r="M41">
-        <v>-0.32182335748637381</v>
+        <v>12.250637612198229</v>
       </c>
       <c r="N41">
-        <v>3.7208797479976501</v>
+        <v>0.1548485734575662</v>
       </c>
       <c r="O41">
-        <v>7.5754308582683434</v>
+        <v>4.3330521692641959</v>
       </c>
       <c r="P41">
-        <v>12.41414845975782</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>-0.24489123666631099</v>
+        <v>8.1080309411184395</v>
+      </c>
+      <c r="Q41">
+        <v>11.741696554274411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>4.4619318919893649</v>
+        <v>8.9863538436255053E-2</v>
       </c>
       <c r="C42">
-        <v>7.81539916330631</v>
+        <v>4.2515363042199272</v>
       </c>
       <c r="D42">
-        <v>12.335124455565349</v>
+        <v>7.9859994845716606</v>
       </c>
       <c r="E42">
-        <v>0.1620202436084176</v>
+        <v>11.538719458427339</v>
       </c>
       <c r="F42">
-        <v>3.9318007267906561</v>
+        <v>0.30382379271800253</v>
       </c>
       <c r="G42">
-        <v>7.6367023355567492</v>
+        <v>4.307435331511396</v>
       </c>
       <c r="H42">
-        <v>12.456747314037219</v>
+        <v>7.5227497693344638</v>
       </c>
       <c r="I42">
-        <v>0.30577634019927269</v>
+        <v>12.372039765160929</v>
       </c>
       <c r="J42">
-        <v>3.7845131387878701</v>
+        <v>-0.26775880474005742</v>
       </c>
       <c r="K42">
-        <v>7.9768324951133716</v>
+        <v>3.823390410401319</v>
       </c>
       <c r="L42">
-        <v>12.40501630151217</v>
+        <v>8.3925062947764282</v>
       </c>
       <c r="M42">
-        <v>-0.25566638170081618</v>
+        <v>12.291976804724071</v>
       </c>
       <c r="N42">
-        <v>3.5040954783710609</v>
+        <v>-0.31460613488365941</v>
       </c>
       <c r="O42">
-        <v>7.7378976302024114</v>
+        <v>3.6082331138658561</v>
       </c>
       <c r="P42">
-        <v>11.61762769170873</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>4.6223862785680359E-2</v>
+        <v>8.4422965373439744</v>
+      </c>
+      <c r="Q42">
+        <v>11.759666284322281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>4.4792228098771396</v>
+        <v>0.28466081370867607</v>
       </c>
       <c r="C43">
-        <v>8.3057465491495854</v>
+        <v>4.3796540268590451</v>
       </c>
       <c r="D43">
-        <v>11.5791701797641</v>
+        <v>7.7980927484638469</v>
       </c>
       <c r="E43">
-        <v>-0.26292464953226879</v>
+        <v>12.18651988534997</v>
       </c>
       <c r="F43">
-        <v>4.1037362454793671</v>
+        <v>-8.5645897241428348E-2</v>
       </c>
       <c r="G43">
-        <v>7.9300584284901134</v>
+        <v>4.289349947122127</v>
       </c>
       <c r="H43">
-        <v>11.905200197668851</v>
+        <v>8.3273083144584543</v>
       </c>
       <c r="I43">
-        <v>-0.35859013285654051</v>
+        <v>11.71946512966705</v>
       </c>
       <c r="J43">
-        <v>3.979160497483782</v>
+        <v>-8.7534288116585257E-2</v>
       </c>
       <c r="K43">
-        <v>8.3054319730375141</v>
+        <v>3.8213973677948152</v>
       </c>
       <c r="L43">
-        <v>12.273571968836</v>
+        <v>8.4496269433341489</v>
       </c>
       <c r="M43">
-        <v>-0.45936988609272211</v>
+        <v>12.285383967518669</v>
       </c>
       <c r="N43">
-        <v>3.8753908178685248</v>
+        <v>0.19080932528327729</v>
       </c>
       <c r="O43">
-        <v>7.7861522658219959</v>
+        <v>4.0162343055645682</v>
       </c>
       <c r="P43">
-        <v>12.10956610999969</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>0.13836345337878159</v>
+        <v>8.3781136396304845</v>
+      </c>
+      <c r="Q43">
+        <v>12.07130452634266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>4.2603266548022152</v>
+        <v>-0.47353735380109929</v>
       </c>
       <c r="C44">
-        <v>7.9012602375183469</v>
+        <v>3.5348999509944168</v>
       </c>
       <c r="D44">
-        <v>12.314420267617191</v>
+        <v>8.349058585367791</v>
       </c>
       <c r="E44">
-        <v>0.31676727070727723</v>
+        <v>12.283290707136331</v>
       </c>
       <c r="F44">
-        <v>4.1576874559871051</v>
+        <v>3.8128147499429939E-3</v>
       </c>
       <c r="G44">
-        <v>7.517259279889223</v>
+        <v>4.0679289734496988</v>
       </c>
       <c r="H44">
-        <v>11.50759974366197</v>
+        <v>7.7736140606894706</v>
       </c>
       <c r="I44">
-        <v>-0.29962911168528722</v>
+        <v>12.176577654387721</v>
       </c>
       <c r="J44">
-        <v>3.6461489737676431</v>
+        <v>0.30758543692570672</v>
       </c>
       <c r="K44">
-        <v>7.8662932344209047</v>
+        <v>3.9493299439086651</v>
       </c>
       <c r="L44">
-        <v>12.1969498182081</v>
+        <v>8.2043294439054879</v>
       </c>
       <c r="M44">
-        <v>-0.21064858567006819</v>
+        <v>11.711364155919741</v>
       </c>
       <c r="N44">
-        <v>4.1242113792717738</v>
+        <v>-6.2869495798907438E-2</v>
       </c>
       <c r="O44">
-        <v>8.0433935793469473</v>
+        <v>3.8351268942137891</v>
       </c>
       <c r="P44">
-        <v>11.70203908183128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0.21993571537777409</v>
+        <v>8.1327047697253079</v>
+      </c>
+      <c r="Q44">
+        <v>12.36394834282374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>3.6812520454867892</v>
+        <v>-1.5879657053160631E-2</v>
       </c>
       <c r="C45">
-        <v>7.7859480113202784</v>
+        <v>3.6102738267530969</v>
       </c>
       <c r="D45">
-        <v>11.722838869097769</v>
+        <v>7.9739648910756884</v>
       </c>
       <c r="E45">
-        <v>-8.8868723510709069E-2</v>
+        <v>11.85769544566284</v>
       </c>
       <c r="F45">
-        <v>4.4434908981691921</v>
+        <v>-0.3367866299245148</v>
       </c>
       <c r="G45">
-        <v>8.1720462051285185</v>
+        <v>4.0760425635845348</v>
       </c>
       <c r="H45">
-        <v>11.903658169642879</v>
+        <v>8.1741287165723602</v>
       </c>
       <c r="I45">
-        <v>0.25617458253266129</v>
+        <v>11.75232274385745</v>
       </c>
       <c r="J45">
-        <v>4.1477276584979634</v>
+        <v>-0.44178109939443028</v>
       </c>
       <c r="K45">
-        <v>8.2940389416624836</v>
+        <v>4.3309569131841634</v>
       </c>
       <c r="L45">
-        <v>12.049741165605861</v>
+        <v>7.9198537124054749</v>
       </c>
       <c r="M45">
-        <v>-0.47763975471149001</v>
+        <v>11.84869257980206</v>
       </c>
       <c r="N45">
-        <v>3.8949269718114872</v>
+        <v>-0.3762734445316559</v>
       </c>
       <c r="O45">
-        <v>7.7476849623459012</v>
+        <v>4.0671718457660919</v>
       </c>
       <c r="P45">
-        <v>12.027005547358341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>-0.34598004736168292</v>
+        <v>7.8600615231223268</v>
+      </c>
+      <c r="Q45">
+        <v>12.469741036950049</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>3.9938413689648899</v>
+        <v>0.47690655224898593</v>
       </c>
       <c r="C46">
-        <v>7.867732443176684</v>
+        <v>3.9666832822832601</v>
       </c>
       <c r="D46">
-        <v>11.82921517549803</v>
+        <v>8.3531701486782666</v>
       </c>
       <c r="E46">
-        <v>-0.38228455327353622</v>
+        <v>12.232802610602549</v>
       </c>
       <c r="F46">
-        <v>4.017184515760559</v>
+        <v>0.35967181861575459</v>
       </c>
       <c r="G46">
-        <v>7.9418270507450908</v>
+        <v>4.1881700761169656</v>
       </c>
       <c r="H46">
-        <v>11.579415726976571</v>
+        <v>8.2254675902965229</v>
       </c>
       <c r="I46">
-        <v>-0.29125195779997842</v>
+        <v>12.209130071920461</v>
       </c>
       <c r="J46">
-        <v>4.3418948735951437</v>
+        <v>0.49935634043546911</v>
       </c>
       <c r="K46">
-        <v>8.4268613880873229</v>
+        <v>3.5143566548048382</v>
       </c>
       <c r="L46">
-        <v>12.217809387835199</v>
+        <v>8.1452238542842057</v>
       </c>
       <c r="M46">
-        <v>0.1064046125777279</v>
+        <v>11.863404770566721</v>
       </c>
       <c r="N46">
-        <v>4.4188784156983809</v>
+        <v>0.42140188934022998</v>
       </c>
       <c r="O46">
-        <v>8.251004938273244</v>
+        <v>3.887968825402266</v>
       </c>
       <c r="P46">
-        <v>12.08141905512916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>-0.2296777723658123</v>
+        <v>8.4147062671714963</v>
+      </c>
+      <c r="Q46">
+        <v>11.81217875966081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>3.7411935853153189</v>
+        <v>-2.6828957987408031E-2</v>
       </c>
       <c r="C47">
-        <v>7.5167141580664403</v>
+        <v>3.8713677925521499</v>
       </c>
       <c r="D47">
-        <v>11.516092751968291</v>
+        <v>7.5037456572773387</v>
       </c>
       <c r="E47">
-        <v>0.1034479186105756</v>
+        <v>11.759596935197591</v>
       </c>
       <c r="F47">
-        <v>4.3212286436009766</v>
+        <v>-0.2486529872738257</v>
       </c>
       <c r="G47">
-        <v>8.0362005751352363</v>
+        <v>3.6253404564824199</v>
       </c>
       <c r="H47">
-        <v>11.670386399255991</v>
+        <v>8.3745176859026067</v>
       </c>
       <c r="I47">
-        <v>-0.34965717885177072</v>
+        <v>11.93386477262424</v>
       </c>
       <c r="J47">
-        <v>3.9784233809936609</v>
+        <v>0.46211012471522839</v>
       </c>
       <c r="K47">
-        <v>8.4333545160792731</v>
+        <v>4.4710539780605218</v>
       </c>
       <c r="L47">
-        <v>11.56817429819357</v>
+        <v>8.2816290892753734</v>
       </c>
       <c r="M47">
-        <v>0.1173510145343413</v>
+        <v>11.62973390413622</v>
       </c>
       <c r="N47">
-        <v>3.777800744227338</v>
+        <v>-0.36567069859379858</v>
       </c>
       <c r="O47">
-        <v>7.6546127060115037</v>
+        <v>3.8787430208069318</v>
       </c>
       <c r="P47">
-        <v>11.581056202331091</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>-0.18425275548192299</v>
+        <v>8.1521854197614871</v>
+      </c>
+      <c r="Q47">
+        <v>12.24247145333632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>4.2491346039030864</v>
+        <v>-0.47368222131419918</v>
       </c>
       <c r="C48">
-        <v>7.7127386015153201</v>
+        <v>4.0342094112270228</v>
       </c>
       <c r="D48">
-        <v>11.949582230700729</v>
+        <v>7.7647750039927672</v>
       </c>
       <c r="E48">
-        <v>3.337506265310497E-2</v>
+        <v>12.2536992409013</v>
       </c>
       <c r="F48">
-        <v>4.3160981246003871</v>
+        <v>0.34201814810382669</v>
       </c>
       <c r="G48">
-        <v>8.0903859254228294</v>
+        <v>3.9163493039928641</v>
       </c>
       <c r="H48">
-        <v>12.12233534981689</v>
+        <v>8.2811879048709542</v>
       </c>
       <c r="I48">
-        <v>-0.27889636540704238</v>
+        <v>12.14859728944351</v>
       </c>
       <c r="J48">
-        <v>3.5070515756178131</v>
+        <v>-9.9927362444761192E-2</v>
       </c>
       <c r="K48">
-        <v>7.723222760762396</v>
+        <v>4.4106711198644559</v>
       </c>
       <c r="L48">
-        <v>11.952362960213399</v>
+        <v>8.4508101892392453</v>
       </c>
       <c r="M48">
-        <v>0.4092659791312987</v>
+        <v>11.92571321707188</v>
       </c>
       <c r="N48">
-        <v>3.7848074356663952</v>
+        <v>-0.28434183678537073</v>
       </c>
       <c r="O48">
-        <v>8.1714465975648451</v>
+        <v>3.5695883514320781</v>
       </c>
       <c r="P48">
-        <v>11.812110906689959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.11880903147280911</v>
+        <v>8.4787599566827012</v>
+      </c>
+      <c r="Q48">
+        <v>11.51853432375192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>4.3674767614795824</v>
+        <v>0.18777210561560501</v>
       </c>
       <c r="C49">
-        <v>8.3341630374401703</v>
+        <v>3.5892679792923849</v>
       </c>
       <c r="D49">
-        <v>11.962576613964529</v>
+        <v>7.9958553783641344</v>
       </c>
       <c r="E49">
-        <v>-0.18888606730847191</v>
+        <v>11.98975706106082</v>
       </c>
       <c r="F49">
-        <v>4.2638222307078477</v>
+        <v>-0.34212938387094971</v>
       </c>
       <c r="G49">
-        <v>7.7689802056899886</v>
+        <v>3.7497454923922842</v>
       </c>
       <c r="H49">
-        <v>11.583790535454369</v>
+        <v>7.6367559760192387</v>
       </c>
       <c r="I49">
-        <v>0.132170980917416</v>
+        <v>12.032386193939679</v>
       </c>
       <c r="J49">
-        <v>3.8507710988394979</v>
+        <v>0.33361965151451839</v>
       </c>
       <c r="K49">
-        <v>7.7214744117334426</v>
+        <v>4.1322789429104816</v>
       </c>
       <c r="L49">
-        <v>12.30669038129043</v>
+        <v>7.6160417130662319</v>
       </c>
       <c r="M49">
-        <v>-0.15198714710450659</v>
+        <v>11.591731666153461</v>
       </c>
       <c r="N49">
-        <v>3.6496536868538532</v>
+        <v>-0.2697032071028671</v>
       </c>
       <c r="O49">
-        <v>8.4315830520602955</v>
+        <v>4.3275553597244958</v>
       </c>
       <c r="P49">
-        <v>11.771673541005949</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>-2.5011258638609091E-2</v>
+        <v>8.0528175904970141</v>
+      </c>
+      <c r="Q49">
+        <v>12.4625737329388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>3.7031975979948091</v>
+        <v>0.47143481791690611</v>
       </c>
       <c r="C50">
-        <v>8.0255970710071036</v>
+        <v>4.2203852794133407</v>
       </c>
       <c r="D50">
-        <v>11.84231720448161</v>
+        <v>7.6143568814847589</v>
       </c>
       <c r="E50">
-        <v>-0.22008171068811189</v>
+        <v>11.9314990539433</v>
       </c>
       <c r="F50">
-        <v>3.7549832123365658</v>
+        <v>0.41402491903244931</v>
       </c>
       <c r="G50">
-        <v>7.9301771262235778</v>
+        <v>3.6796864578374699</v>
       </c>
       <c r="H50">
-        <v>11.75703895658091</v>
+        <v>8.3622735599184637</v>
       </c>
       <c r="I50">
-        <v>6.0508677288914403E-2</v>
+        <v>12.493708056313199</v>
       </c>
       <c r="J50">
-        <v>3.9144223298753018</v>
+        <v>-8.1408295251748086E-2</v>
       </c>
       <c r="K50">
-        <v>8.2064116315377476</v>
+        <v>3.7932058390509278</v>
       </c>
       <c r="L50">
-        <v>12.154468339960189</v>
+        <v>8.4477120120995313</v>
       </c>
       <c r="M50">
-        <v>0.31845435282216011</v>
+        <v>11.85416144999129</v>
       </c>
       <c r="N50">
-        <v>4.1650987106461077</v>
+        <v>0.15780821360113551</v>
       </c>
       <c r="O50">
-        <v>7.9291604461034009</v>
+        <v>3.84192646526955</v>
       </c>
       <c r="P50">
-        <v>12.193381763547301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>-8.6241701844165242E-2</v>
+        <v>7.7646190302729163</v>
+      </c>
+      <c r="Q50">
+        <v>12.477617092543969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>3.730221534964365</v>
+        <v>4.0242666221106622E-2</v>
       </c>
       <c r="C51">
-        <v>8.0727425114623976</v>
+        <v>3.893430516029444</v>
       </c>
       <c r="D51">
-        <v>11.67662678467177</v>
+        <v>8.3194776763918412</v>
       </c>
       <c r="E51">
-        <v>1.8876622528693932E-2</v>
+        <v>12.422910475259609</v>
       </c>
       <c r="F51">
-        <v>4.2327600453646683</v>
+        <v>0.22497749898297961</v>
       </c>
       <c r="G51">
-        <v>8.3293276096421209</v>
+        <v>3.8602743548374119</v>
       </c>
       <c r="H51">
-        <v>11.529036342964879</v>
+        <v>8.2214539007600109</v>
       </c>
       <c r="I51">
-        <v>-5.1998693438094157E-2</v>
+        <v>11.857930063053541</v>
       </c>
       <c r="J51">
-        <v>3.6753736860014228</v>
+        <v>0.1690554083949978</v>
       </c>
       <c r="K51">
-        <v>7.5294452622427199</v>
+        <v>4.0573362497077126</v>
       </c>
       <c r="L51">
-        <v>11.582139264277959</v>
+        <v>8.141512931591544</v>
       </c>
       <c r="M51">
-        <v>0.30571077569649358</v>
+        <v>12.36406805110061</v>
       </c>
       <c r="N51">
-        <v>3.792195538602932</v>
+        <v>3.9931988096659883E-2</v>
       </c>
       <c r="O51">
-        <v>8.1199637073337563</v>
+        <v>3.5947663939534169</v>
       </c>
       <c r="P51">
-        <v>12.073515982208219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>-0.33197836002755188</v>
+        <v>8.2997002118536081</v>
+      </c>
+      <c r="Q51">
+        <v>12.49074148879208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>3.6677448104819308</v>
+        <v>0.23912824585761069</v>
       </c>
       <c r="C52">
-        <v>7.7721466762972886</v>
+        <v>3.835363446300954</v>
       </c>
       <c r="D52">
-        <v>11.95085953236555</v>
+        <v>8.2410606664010135</v>
       </c>
       <c r="E52">
-        <v>-0.1183972612362507</v>
+        <v>11.9713930469358</v>
       </c>
       <c r="F52">
-        <v>3.8636231010089319</v>
+        <v>2.4278751104973021E-2</v>
       </c>
       <c r="G52">
-        <v>7.6057009296398483</v>
+        <v>4.118861308074071</v>
       </c>
       <c r="H52">
-        <v>12.016180082607431</v>
+        <v>7.6138180691917272</v>
       </c>
       <c r="I52">
-        <v>-0.39896826154120252</v>
+        <v>11.97749726476515</v>
       </c>
       <c r="J52">
-        <v>4.0418798680944894</v>
+        <v>-0.1915702806090048</v>
       </c>
       <c r="K52">
-        <v>7.8980724218581067</v>
+        <v>3.5058788110462178</v>
       </c>
       <c r="L52">
-        <v>12.35069893776283</v>
+        <v>8.2827558328894124</v>
       </c>
       <c r="M52">
-        <v>-3.5682085742319243E-2</v>
+        <v>11.72524543402627</v>
       </c>
       <c r="N52">
-        <v>3.7284188173307728</v>
+        <v>-7.1325991730475269E-2</v>
       </c>
       <c r="O52">
-        <v>7.9178915882116208</v>
+        <v>3.823994999879293</v>
       </c>
       <c r="P52">
-        <v>11.81261012558204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2.5956419127747932E-2</v>
+        <v>7.926061966363033</v>
+      </c>
+      <c r="Q52">
+        <v>12.481069294425509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>4.3261884645169273</v>
+        <v>0.12896418517302111</v>
       </c>
       <c r="C53">
-        <v>7.621336146245552</v>
+        <v>3.9426134764948819</v>
       </c>
       <c r="D53">
-        <v>11.692232665609399</v>
+        <v>7.9308928684363078</v>
       </c>
       <c r="E53">
-        <v>0.16149644547626249</v>
+        <v>11.79518543267527</v>
       </c>
       <c r="F53">
-        <v>3.718789481571406</v>
+        <v>-0.32035987750923839</v>
       </c>
       <c r="G53">
-        <v>8.3460212954032009</v>
+        <v>4.3153818290707502</v>
       </c>
       <c r="H53">
-        <v>11.83096345874589</v>
+        <v>7.6449053043197219</v>
       </c>
       <c r="I53">
-        <v>0.47069452278327051</v>
+        <v>11.7944181381747</v>
       </c>
       <c r="J53">
-        <v>4.285729281546482</v>
+        <v>-0.24967489488847441</v>
       </c>
       <c r="K53">
-        <v>7.5539135627037792</v>
+        <v>3.6243412152031378</v>
       </c>
       <c r="L53">
-        <v>12.36991818089213</v>
+        <v>8.0040481788351414</v>
       </c>
       <c r="M53">
-        <v>0.46700066274613211</v>
+        <v>11.80543251251952</v>
       </c>
       <c r="N53">
-        <v>3.88883503007292</v>
+        <v>-0.1792866314755506</v>
       </c>
       <c r="O53">
-        <v>8.2649090679716082</v>
+        <v>4.1965654768747527</v>
       </c>
       <c r="P53">
-        <v>12.28241348464298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>-0.1216071779111836</v>
+        <v>7.595874148233194</v>
+      </c>
+      <c r="Q53">
+        <v>11.97104645843593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>4.2197253549831419</v>
+        <v>-0.41570311432603518</v>
       </c>
       <c r="C54">
-        <v>8.097440956517616</v>
+        <v>4.2657971410257094</v>
       </c>
       <c r="D54">
-        <v>11.60484838256661</v>
+        <v>8.1257248892033331</v>
       </c>
       <c r="E54">
-        <v>-4.2216012380098533E-3</v>
+        <v>11.74095098913498</v>
       </c>
       <c r="F54">
-        <v>4.4600185577431883</v>
+        <v>0.46520804127636411</v>
       </c>
       <c r="G54">
-        <v>7.768304635692898</v>
+        <v>4.319411473270315</v>
       </c>
       <c r="H54">
-        <v>11.6738298685292</v>
+        <v>7.5223430058278256</v>
       </c>
       <c r="I54">
-        <v>3.0433684277315631E-3</v>
+        <v>12.472211845645599</v>
       </c>
       <c r="J54">
-        <v>4.0129158727789678</v>
+        <v>0.1417345078031326</v>
       </c>
       <c r="K54">
-        <v>7.506890949499379</v>
+        <v>4.3737661885104719</v>
       </c>
       <c r="L54">
-        <v>11.50861128990573</v>
+        <v>8.1718308680545348</v>
       </c>
       <c r="M54">
-        <v>0.16496580688438009</v>
+        <v>11.77888062046172</v>
       </c>
       <c r="N54">
-        <v>4.3981996828144032</v>
+        <v>0.18826093302549449</v>
       </c>
       <c r="O54">
-        <v>8.0800631224142645</v>
+        <v>3.5694064370559868</v>
       </c>
       <c r="P54">
-        <v>11.59128401518138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>3.2250878563443663E-2</v>
+        <v>7.5728305832539</v>
+      </c>
+      <c r="Q54">
+        <v>12.22814864701372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>4.0409083169604916</v>
+        <v>0.175679655355646</v>
       </c>
       <c r="C55">
-        <v>7.7879731476829797</v>
+        <v>4.2235771802622502</v>
       </c>
       <c r="D55">
-        <v>11.66936640279768</v>
+        <v>7.7968898319179267</v>
       </c>
       <c r="E55">
-        <v>0.40575517637450892</v>
+        <v>12.387483245880039</v>
       </c>
       <c r="F55">
-        <v>4.0353061997252127</v>
+        <v>-0.37338447485982279</v>
       </c>
       <c r="G55">
-        <v>8.1495380981607664</v>
+        <v>4.383663761387119</v>
       </c>
       <c r="H55">
-        <v>12.186740573473401</v>
+        <v>8.1033701516674146</v>
       </c>
       <c r="I55">
-        <v>0.22939470725654049</v>
+        <v>12.00095917302365</v>
       </c>
       <c r="J55">
-        <v>4.1247727294153256</v>
+        <v>-0.40607179532126292</v>
       </c>
       <c r="K55">
-        <v>8.4395351612912428</v>
+        <v>3.85640856217355</v>
       </c>
       <c r="L55">
-        <v>12.35201220730591</v>
+        <v>8.2302749803294688</v>
       </c>
       <c r="M55">
-        <v>0.1100153615770573</v>
+        <v>11.72474616558349</v>
       </c>
       <c r="N55">
-        <v>4.2305432035250172</v>
+        <v>-0.29933049744193529</v>
       </c>
       <c r="O55">
-        <v>8.3237062713059657</v>
+        <v>3.604567079429144</v>
       </c>
       <c r="P55">
-        <v>11.838694678980531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.27584330207436358</v>
+        <v>7.6442051469626806</v>
+      </c>
+      <c r="Q55">
+        <v>12.224869694800541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>4.4861357043290164</v>
+        <v>-2.0622507035393811E-2</v>
       </c>
       <c r="C56">
-        <v>7.5303430580086257</v>
+        <v>4.4149149215183039</v>
       </c>
       <c r="D56">
-        <v>11.593886660094631</v>
+        <v>8.3775060986552301</v>
       </c>
       <c r="E56">
-        <v>-0.26274553322825639</v>
+        <v>12.023755688010329</v>
       </c>
       <c r="F56">
-        <v>3.561637176057161</v>
+        <v>1.8622707005524819E-2</v>
       </c>
       <c r="G56">
-        <v>7.7555627614981288</v>
+        <v>3.933199134750482</v>
       </c>
       <c r="H56">
-        <v>12.359571585340021</v>
+        <v>8.2879326588901669</v>
       </c>
       <c r="I56">
-        <v>7.0630117044590213E-2</v>
+        <v>12.165510005849599</v>
       </c>
       <c r="J56">
-        <v>3.982782517459651</v>
+        <v>-0.30950701018092691</v>
       </c>
       <c r="K56">
-        <v>7.6109122246682119</v>
+        <v>4.4845113230141296</v>
       </c>
       <c r="L56">
-        <v>11.627415637972479</v>
+        <v>7.6470135645037072</v>
       </c>
       <c r="M56">
-        <v>3.972463493427425E-2</v>
+        <v>12.31037378366759</v>
       </c>
       <c r="N56">
-        <v>4.2356831427767476</v>
+        <v>-0.1196237039777073</v>
       </c>
       <c r="O56">
-        <v>8.0998121017289879</v>
+        <v>3.9641324048473781</v>
       </c>
       <c r="P56">
-        <v>11.776228556883741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>8.7803585059803235E-2</v>
+        <v>7.8443705400736503</v>
+      </c>
+      <c r="Q56">
+        <v>12.303163581238421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>4.1140643768875051</v>
+        <v>-0.30764720225006381</v>
       </c>
       <c r="C57">
-        <v>8.2740828999064853</v>
+        <v>3.8112884328696359</v>
       </c>
       <c r="D57">
-        <v>11.6922094516546</v>
+        <v>7.5676838480678823</v>
       </c>
       <c r="E57">
-        <v>9.8813235573194325E-2</v>
+        <v>12.49218394581322</v>
       </c>
       <c r="F57">
-        <v>4.3813254435846014</v>
+        <v>-7.0185091667298694E-2</v>
       </c>
       <c r="G57">
-        <v>8.4314145246737624</v>
+        <v>4.0195135578503836</v>
       </c>
       <c r="H57">
-        <v>12.064243075514391</v>
+        <v>7.8896170949478597</v>
       </c>
       <c r="I57">
-        <v>6.6442218433589986E-3</v>
+        <v>12.37609900731022</v>
       </c>
       <c r="J57">
-        <v>3.7964050980348629</v>
+        <v>5.7324162066433759E-2</v>
       </c>
       <c r="K57">
-        <v>7.6333081953630764</v>
+        <v>4.0488689460957499</v>
       </c>
       <c r="L57">
-        <v>12.382397847778639</v>
+        <v>8.4926171844767655</v>
       </c>
       <c r="M57">
-        <v>0.47711658550119601</v>
+        <v>12.31280627455889</v>
       </c>
       <c r="N57">
-        <v>4.3446043259072091</v>
+        <v>0.32999610645310429</v>
       </c>
       <c r="O57">
-        <v>7.9600951656249528</v>
+        <v>3.6944543092455802</v>
       </c>
       <c r="P57">
-        <v>12.481028003769021</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>-0.37013657712417392</v>
+        <v>8.0494906920546612</v>
+      </c>
+      <c r="Q57">
+        <v>11.692082846758341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>4.137786430736095</v>
+        <v>-5.5542699874517099E-2</v>
       </c>
       <c r="C58">
-        <v>7.6112906909115559</v>
+        <v>4.1577240194751779</v>
       </c>
       <c r="D58">
-        <v>11.507220680204441</v>
+        <v>7.8582636534998684</v>
       </c>
       <c r="E58">
-        <v>0.3017421570805654</v>
+        <v>12.21961952937626</v>
       </c>
       <c r="F58">
-        <v>4.3567088480882381</v>
+        <v>0.10352218592956609</v>
       </c>
       <c r="G58">
-        <v>8.0786761473050905</v>
+        <v>3.8654106876786249</v>
       </c>
       <c r="H58">
-        <v>12.41840542750915</v>
+        <v>8.1737000897926322</v>
       </c>
       <c r="I58">
-        <v>0.25042885277704768</v>
+        <v>12.274292418049161</v>
       </c>
       <c r="J58">
-        <v>4.2884881249180253</v>
+        <v>0.20918006878153819</v>
       </c>
       <c r="K58">
-        <v>8.3930194210001439</v>
+        <v>3.722865022228774</v>
       </c>
       <c r="L58">
-        <v>11.659201111120231</v>
+        <v>7.7104973539277886</v>
       </c>
       <c r="M58">
-        <v>0.35914243329375622</v>
+        <v>12.08490348789641</v>
       </c>
       <c r="N58">
-        <v>4.0729106072272847</v>
+        <v>0.34743048821714673</v>
       </c>
       <c r="O58">
-        <v>7.5328977148980716</v>
+        <v>4.2166931641603496</v>
       </c>
       <c r="P58">
-        <v>11.8860603318487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4.710196521066512E-2</v>
+        <v>8.3289341959202758</v>
+      </c>
+      <c r="Q58">
+        <v>12.049449037966889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>3.516860520346015</v>
+        <v>0.37375773785435318</v>
       </c>
       <c r="C59">
-        <v>8.0341043030367132</v>
+        <v>4.2841805453809574</v>
       </c>
       <c r="D59">
-        <v>12.18139977298671</v>
+        <v>8.4527625186481767</v>
       </c>
       <c r="E59">
-        <v>0.26036952396740642</v>
+        <v>11.803273843002</v>
       </c>
       <c r="F59">
-        <v>3.9908517550765361</v>
+        <v>-0.48435016887875709</v>
       </c>
       <c r="G59">
-        <v>7.8813503055728829</v>
+        <v>4.3865147647005154</v>
       </c>
       <c r="H59">
-        <v>11.81461040340664</v>
+        <v>8.0998862921660244</v>
       </c>
       <c r="I59">
-        <v>0.49754240263125882</v>
+        <v>11.75473806842948</v>
       </c>
       <c r="J59">
-        <v>3.746831893811597</v>
+        <v>0.10529953086076201</v>
       </c>
       <c r="K59">
-        <v>8.4568933014000081</v>
+        <v>4.1511547347290358</v>
       </c>
       <c r="L59">
-        <v>12.189139967948</v>
+        <v>7.953510584885211</v>
       </c>
       <c r="M59">
-        <v>-0.19236392993400539</v>
+        <v>11.52667251634792</v>
       </c>
       <c r="N59">
-        <v>4.1073055057683643</v>
+        <v>-0.43794281457828632</v>
       </c>
       <c r="O59">
-        <v>8.1022095951403124</v>
+        <v>4.0710974975471768</v>
       </c>
       <c r="P59">
-        <v>11.81845526426879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>-0.23485796574588219</v>
+        <v>7.5702226470912244</v>
+      </c>
+      <c r="Q59">
+        <v>12.326210714733721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>4.2278592398670947</v>
+        <v>0.22437043103151419</v>
       </c>
       <c r="C60">
-        <v>8.4264573563144705</v>
+        <v>3.5390788022626798</v>
       </c>
       <c r="D60">
-        <v>11.666295175333129</v>
+        <v>8.1667842229028711</v>
       </c>
       <c r="E60">
-        <v>-0.14689574194839219</v>
+        <v>12.48557634433344</v>
       </c>
       <c r="F60">
-        <v>4.0165781885652194</v>
+        <v>-6.5672265505407723E-2</v>
       </c>
       <c r="G60">
-        <v>8.2284532724930326</v>
+        <v>3.910184127684003</v>
       </c>
       <c r="H60">
-        <v>11.722218717543321</v>
+        <v>7.8483985449847484</v>
       </c>
       <c r="I60">
-        <v>-0.29236325269367619</v>
+        <v>11.59449016656971</v>
       </c>
       <c r="J60">
-        <v>4.3931793831373271</v>
+        <v>-0.43615389381356068</v>
       </c>
       <c r="K60">
-        <v>8.135501540456799</v>
+        <v>3.8476868056999689</v>
       </c>
       <c r="L60">
-        <v>11.622471335337289</v>
+        <v>7.5684476484164422</v>
       </c>
       <c r="M60">
-        <v>0.23814059247548769</v>
+        <v>11.858591050773359</v>
       </c>
       <c r="N60">
-        <v>4.1121604731841854</v>
+        <v>-0.45736032223220069</v>
       </c>
       <c r="O60">
-        <v>8.3246035278843777</v>
+        <v>3.8678606400464921</v>
       </c>
       <c r="P60">
-        <v>11.65583605262035</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>-0.4948996816211283</v>
+        <v>8.0732703846595797</v>
+      </c>
+      <c r="Q60">
+        <v>12.187743086923801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>3.9421653024039731</v>
+        <v>2.1847405645953891E-2</v>
       </c>
       <c r="C61">
-        <v>8.1376314017450078</v>
+        <v>3.6450204241450752</v>
       </c>
       <c r="D61">
-        <v>12.34707331769275</v>
+        <v>7.8822594414275766</v>
       </c>
       <c r="E61">
-        <v>-0.36772413314548641</v>
+        <v>11.90284015396071</v>
       </c>
       <c r="F61">
-        <v>3.97590823805636</v>
+        <v>0.17819061389089419</v>
       </c>
       <c r="G61">
-        <v>7.8192429854065741</v>
+        <v>4.3151700124841614</v>
       </c>
       <c r="H61">
-        <v>12.421875257077019</v>
+        <v>8.1991650430950802</v>
       </c>
       <c r="I61">
-        <v>-0.33954997193470993</v>
+        <v>12.488978830014659</v>
       </c>
       <c r="J61">
-        <v>4.3163099573206658</v>
+        <v>1.273421160802091E-2</v>
       </c>
       <c r="K61">
-        <v>7.8562404727715469</v>
+        <v>3.821329325956238</v>
       </c>
       <c r="L61">
-        <v>11.861943492269059</v>
+        <v>7.5193519657252201</v>
       </c>
       <c r="M61">
-        <v>0.3826092345022768</v>
+        <v>12.129458465615331</v>
       </c>
       <c r="N61">
-        <v>3.5354292407693459</v>
+        <v>-0.36244518146838051</v>
       </c>
       <c r="O61">
-        <v>7.5317061390275182</v>
+        <v>3.5591373466788192</v>
       </c>
       <c r="P61">
-        <v>12.34787980109774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0.26078896876702812</v>
+        <v>7.6199744917396766</v>
+      </c>
+      <c r="Q61">
+        <v>11.915757326141289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>4.0980616535584318</v>
+        <v>8.4447848389613833E-2</v>
       </c>
       <c r="C62">
-        <v>8.1640417928068754</v>
+        <v>3.7694550607223789</v>
       </c>
       <c r="D62">
-        <v>12.270352459806549</v>
+        <v>8.371753575225453</v>
       </c>
       <c r="E62">
-        <v>0.43746839977783702</v>
+        <v>11.569851328736419</v>
       </c>
       <c r="F62">
-        <v>4.4020583484399811</v>
+        <v>-6.771248325796142E-2</v>
       </c>
       <c r="G62">
-        <v>8.3348025013631393</v>
+        <v>3.6962902761179239</v>
       </c>
       <c r="H62">
-        <v>11.93787809207314</v>
+        <v>8.1178396044897028</v>
       </c>
       <c r="I62">
-        <v>0.30671798724663368</v>
+        <v>11.794748239171589</v>
       </c>
       <c r="J62">
-        <v>3.543949985639157</v>
+        <v>0.42813663856943218</v>
       </c>
       <c r="K62">
-        <v>8.0278525767441096</v>
+        <v>3.5816762847036601</v>
       </c>
       <c r="L62">
-        <v>12.259703432232911</v>
+        <v>7.6629191226975104</v>
       </c>
       <c r="M62">
-        <v>0.42548453149731602</v>
+        <v>11.752072182557329</v>
       </c>
       <c r="N62">
-        <v>4.1999027135073712</v>
+        <v>0.27227936081860071</v>
       </c>
       <c r="O62">
-        <v>7.9930341051252789</v>
+        <v>4.2716993197950064</v>
       </c>
       <c r="P62">
-        <v>11.69752938972516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>-0.43773767734202401</v>
+        <v>7.5961477591500337</v>
+      </c>
+      <c r="Q62">
+        <v>11.558756463631889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>4.1753138705384636</v>
+        <v>-0.25515253144879368</v>
       </c>
       <c r="C63">
-        <v>7.5894454470093944</v>
+        <v>3.987890845000122</v>
       </c>
       <c r="D63">
-        <v>12.362857675188289</v>
+        <v>7.9406493763018444</v>
       </c>
       <c r="E63">
-        <v>-0.20693460483941359</v>
+        <v>12.01187364317471</v>
       </c>
       <c r="F63">
-        <v>3.6816239825683681</v>
+        <v>-0.20225395092700721</v>
       </c>
       <c r="G63">
-        <v>8.1928063993264963</v>
+        <v>3.530323519883686</v>
       </c>
       <c r="H63">
-        <v>11.59378018384886</v>
+        <v>7.6583565469358721</v>
       </c>
       <c r="I63">
-        <v>-2.5775314637556331E-2</v>
+        <v>12.416518574056401</v>
       </c>
       <c r="J63">
-        <v>3.524025515679555</v>
+        <v>-0.16769486210908621</v>
       </c>
       <c r="K63">
-        <v>7.6328624995102388</v>
+        <v>4.1229985950079797</v>
       </c>
       <c r="L63">
-        <v>12.344215929351821</v>
+        <v>8.3075168902281362</v>
       </c>
       <c r="M63">
-        <v>-0.17652382428695271</v>
+        <v>11.56724964199603</v>
       </c>
       <c r="N63">
-        <v>4.055729375516921</v>
+        <v>-1.25398296392919E-2</v>
       </c>
       <c r="O63">
-        <v>8.3761603752016125</v>
+        <v>3.904975983462895</v>
       </c>
       <c r="P63">
-        <v>12.004746469462351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>-8.1856338463306866E-2</v>
+        <v>8.2944297668040186</v>
+      </c>
+      <c r="Q63">
+        <v>11.82087344180294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>4.3409030279715601</v>
+        <v>-0.22685758801513961</v>
       </c>
       <c r="C64">
-        <v>8.1379636933572641</v>
+        <v>4.3306147173910627</v>
       </c>
       <c r="D64">
-        <v>12.2855324457385</v>
+        <v>8.189617488789505</v>
       </c>
       <c r="E64">
-        <v>-0.43887986489142078</v>
+        <v>12.352926864106729</v>
       </c>
       <c r="F64">
-        <v>3.5181704642820999</v>
+        <v>0.34576044893925639</v>
       </c>
       <c r="G64">
-        <v>7.7715495087501703</v>
+        <v>3.741037596813729</v>
       </c>
       <c r="H64">
-        <v>12.246986627905709</v>
+        <v>7.8053960420515676</v>
       </c>
       <c r="I64">
-        <v>-0.134414412670088</v>
+        <v>11.65152219295922</v>
       </c>
       <c r="J64">
-        <v>4.035630060744591</v>
+        <v>0.28405917100525552</v>
       </c>
       <c r="K64">
-        <v>8.1052288164044359</v>
+        <v>4.2742101569532913</v>
       </c>
       <c r="L64">
-        <v>11.748934667979739</v>
+        <v>8.4166941957325552</v>
       </c>
       <c r="M64">
-        <v>-3.2949694647313447E-2</v>
+        <v>11.54333858391256</v>
       </c>
       <c r="N64">
-        <v>3.531867630113251</v>
+        <v>0.27317612619837039</v>
       </c>
       <c r="O64">
-        <v>7.7511808457412306</v>
+        <v>3.6619529231125059</v>
       </c>
       <c r="P64">
-        <v>12.061975321192071</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>-0.42229764942084619</v>
+        <v>7.8180070406461946</v>
+      </c>
+      <c r="Q64">
+        <v>11.886971853910291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>4.2551542657058166</v>
+        <v>6.5849887145717267E-2</v>
       </c>
       <c r="C65">
-        <v>8.2273745082882037</v>
+        <v>4.2708545452352897</v>
       </c>
       <c r="D65">
-        <v>11.905946139206261</v>
+        <v>7.6568795550635853</v>
       </c>
       <c r="E65">
-        <v>-0.25060420679550549</v>
+        <v>12.038391522354679</v>
       </c>
       <c r="F65">
-        <v>3.8992213985317652</v>
+        <v>0.39809241342497081</v>
       </c>
       <c r="G65">
-        <v>8.0159289527336384</v>
+        <v>3.8467766737280722</v>
       </c>
       <c r="H65">
-        <v>11.860736689117569</v>
+        <v>7.7293175745756137</v>
       </c>
       <c r="I65">
-        <v>-8.3156886132416008E-2</v>
+        <v>11.993960378197711</v>
       </c>
       <c r="J65">
-        <v>4.4155725086954112</v>
+        <v>-0.42845906933889238</v>
       </c>
       <c r="K65">
-        <v>8.4022387396275668</v>
+        <v>3.785728489153001</v>
       </c>
       <c r="L65">
-        <v>11.87983749155908</v>
+        <v>8.4449788980817964</v>
       </c>
       <c r="M65">
-        <v>-0.15388254484905869</v>
+        <v>12.0898287967612</v>
       </c>
       <c r="N65">
-        <v>4.0907503384246784</v>
+        <v>0.12392497718731819</v>
       </c>
       <c r="O65">
-        <v>7.9673067735113836</v>
+        <v>3.918756777118114</v>
       </c>
       <c r="P65">
-        <v>11.596630360735929</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>-0.26187274852617948</v>
+        <v>8.4835800936911383</v>
+      </c>
+      <c r="Q65">
+        <v>12.417045368063169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>3.8310294525620341</v>
+        <v>-0.12724690884681911</v>
       </c>
       <c r="C66">
-        <v>8.2971041390291713</v>
+        <v>4.1698483150696113</v>
       </c>
       <c r="D66">
-        <v>12.023834248295319</v>
+        <v>7.682638776498413</v>
       </c>
       <c r="E66">
-        <v>0.46555235840063341</v>
+        <v>11.511824435998401</v>
       </c>
       <c r="F66">
-        <v>4.2770711636927192</v>
+        <v>0.23048728187760581</v>
       </c>
       <c r="G66">
-        <v>8.4107323559648055</v>
+        <v>4.2500341926063321</v>
       </c>
       <c r="H66">
-        <v>12.29404175918835</v>
+        <v>8.0352973227246842</v>
       </c>
       <c r="I66">
-        <v>0.34775947497435328</v>
+        <v>11.960070563420951</v>
       </c>
       <c r="J66">
-        <v>3.6855299299371431</v>
+        <v>0.250774198464223</v>
       </c>
       <c r="K66">
-        <v>8.1585160443942595</v>
+        <v>4.1618525521558611</v>
       </c>
       <c r="L66">
-        <v>11.800038933127359</v>
+        <v>7.6092268349098902</v>
       </c>
       <c r="M66">
-        <v>0.44681756493109709</v>
+        <v>12.380351204840499</v>
       </c>
       <c r="N66">
-        <v>4.13923526330312</v>
+        <v>-0.21847539130054719</v>
       </c>
       <c r="O66">
-        <v>7.9736090658071914</v>
+        <v>3.6407356217065838</v>
       </c>
       <c r="P66">
-        <v>11.85723215545838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>-0.45399058014818178</v>
+        <v>8.1652737818460572</v>
+      </c>
+      <c r="Q66">
+        <v>11.548141572158761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>3.6379392451952999</v>
+        <v>0.45497180271630061</v>
       </c>
       <c r="C67">
-        <v>7.8600692605917608</v>
+        <v>4.0177992794295507</v>
       </c>
       <c r="D67">
-        <v>12.12836395000649</v>
+        <v>8.4097700793187347</v>
       </c>
       <c r="E67">
-        <v>-0.21796637247599859</v>
+        <v>12.225985294317679</v>
       </c>
       <c r="F67">
-        <v>3.913414291930577</v>
+        <v>-0.45260483235348759</v>
       </c>
       <c r="G67">
-        <v>7.571777663854288</v>
+        <v>4.1085779800513293</v>
       </c>
       <c r="H67">
-        <v>12.229908681766281</v>
+        <v>7.9328990687070728</v>
       </c>
       <c r="I67">
-        <v>0.45224576326499683</v>
+        <v>12.45150240564436</v>
       </c>
       <c r="J67">
-        <v>3.8268001480916238</v>
+        <v>0.38681147464977989</v>
       </c>
       <c r="K67">
-        <v>8.2076078276637148</v>
+        <v>3.858466869588622</v>
       </c>
       <c r="L67">
-        <v>11.71563831529526</v>
+        <v>7.975507667094405</v>
       </c>
       <c r="M67">
-        <v>-0.32187029622237451</v>
+        <v>12.202440471773039</v>
       </c>
       <c r="N67">
-        <v>3.8226544580404651</v>
+        <v>-0.1571387365946347</v>
       </c>
       <c r="O67">
-        <v>8.3116918279965848</v>
+        <v>3.745171587122647</v>
       </c>
       <c r="P67">
-        <v>11.647363634259261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>-0.49722294296613101</v>
+        <v>8.4270274260889835</v>
+      </c>
+      <c r="Q67">
+        <v>11.90820013218937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>3.8439689151753611</v>
+        <v>0.32150394542483463</v>
       </c>
       <c r="C68">
-        <v>8.2839532814294685</v>
+        <v>4.3070520887325854</v>
       </c>
       <c r="D68">
-        <v>12.35995901734753</v>
+        <v>7.8002387417321764</v>
       </c>
       <c r="E68">
-        <v>-0.14315661285655509</v>
+        <v>12.3663505732583</v>
       </c>
       <c r="F68">
-        <v>3.8134593025349601</v>
+        <v>-0.31505055706077512</v>
       </c>
       <c r="G68">
-        <v>7.5542196887705249</v>
+        <v>4.4139483626507232</v>
       </c>
       <c r="H68">
-        <v>12.39357624874801</v>
+        <v>7.7924117458210587</v>
       </c>
       <c r="I68">
-        <v>-0.34223680691611452</v>
+        <v>11.9996312888911</v>
       </c>
       <c r="J68">
-        <v>3.550551751999472</v>
+        <v>3.8273443787290813E-2</v>
       </c>
       <c r="K68">
-        <v>8.2650872692372719</v>
+        <v>3.8032048893670511</v>
       </c>
       <c r="L68">
-        <v>12.23472759975167</v>
+        <v>8.3970001417423852</v>
       </c>
       <c r="M68">
-        <v>-0.49895245833660118</v>
+        <v>11.671908221089231</v>
       </c>
       <c r="N68">
-        <v>3.770536428315804</v>
+        <v>0.33886910904312889</v>
       </c>
       <c r="O68">
-        <v>8.3689110050962512</v>
+        <v>3.879590479332061</v>
       </c>
       <c r="P68">
-        <v>12.16262091560084</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>0.46041770505495389</v>
+        <v>8.1693099034785401</v>
+      </c>
+      <c r="Q68">
+        <v>11.85389105462307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>4.0499956955824477</v>
+        <v>-0.48590710563270778</v>
       </c>
       <c r="C69">
-        <v>7.6693917471343376</v>
+        <v>3.9509525815618818</v>
       </c>
       <c r="D69">
-        <v>11.783998012056941</v>
+        <v>8.1921507372746127</v>
       </c>
       <c r="E69">
-        <v>0.1931410664313602</v>
+        <v>11.858523817464389</v>
       </c>
       <c r="F69">
-        <v>4.1384978665690957</v>
+        <v>-0.20084497147812441</v>
       </c>
       <c r="G69">
-        <v>7.7942783158733553</v>
+        <v>3.762920332057623</v>
       </c>
       <c r="H69">
-        <v>11.983786561445781</v>
+        <v>8.1816129898567578</v>
       </c>
       <c r="I69">
-        <v>2.2834877539763099E-2</v>
+        <v>12.093115885938261</v>
       </c>
       <c r="J69">
-        <v>3.8739380954814719</v>
+        <v>2.2988944267523851E-2</v>
       </c>
       <c r="K69">
-        <v>7.9020272182620914</v>
+        <v>3.7915291684477861</v>
       </c>
       <c r="L69">
-        <v>12.132619407369861</v>
+        <v>8.3434114712769798</v>
       </c>
       <c r="M69">
-        <v>-4.2493852658392339E-2</v>
+        <v>12.459576394119731</v>
       </c>
       <c r="N69">
-        <v>4.3406131168073863</v>
+        <v>5.647556887512728E-2</v>
       </c>
       <c r="O69">
-        <v>7.8996877846986431</v>
+        <v>3.7123975681855921</v>
       </c>
       <c r="P69">
-        <v>12.29991380128874</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>-0.28290389583594461</v>
+        <v>8.0017870103955637</v>
+      </c>
+      <c r="Q69">
+        <v>11.869859448117881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>3.7690876129044191</v>
+        <v>0.2292920908039264</v>
       </c>
       <c r="C70">
-        <v>7.974208542133054</v>
+        <v>3.6466315840473138</v>
       </c>
       <c r="D70">
-        <v>11.7299970161205</v>
+        <v>8.43377746463708</v>
       </c>
       <c r="E70">
-        <v>-0.49090682855991452</v>
+        <v>12.00749187829275</v>
       </c>
       <c r="F70">
-        <v>4.0154606057944466</v>
+        <v>-0.32358987411767598</v>
       </c>
       <c r="G70">
-        <v>8.0308894477152908</v>
+        <v>4.2502374688471072</v>
       </c>
       <c r="H70">
-        <v>12.45922526798306</v>
+        <v>7.9118596965100663</v>
       </c>
       <c r="I70">
-        <v>0.41274839732958762</v>
+        <v>11.53654551773697</v>
       </c>
       <c r="J70">
-        <v>3.5352915128342879</v>
+        <v>0.36182119680793878</v>
       </c>
       <c r="K70">
-        <v>8.1112745770993371</v>
+        <v>3.5063776524803738</v>
       </c>
       <c r="L70">
-        <v>11.82665552298587</v>
+        <v>8.3732356443742546</v>
       </c>
       <c r="M70">
-        <v>-0.22995160755565269</v>
+        <v>11.607194075671989</v>
       </c>
       <c r="N70">
-        <v>4.1894328676019974</v>
+        <v>0.1935787666876394</v>
       </c>
       <c r="O70">
-        <v>7.9486126415100493</v>
+        <v>4.3117649024696796</v>
       </c>
       <c r="P70">
-        <v>12.20801948811622</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>0.1154581108968661</v>
+        <v>8.092924191877783</v>
+      </c>
+      <c r="Q70">
+        <v>12.290125710571511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>4.268507490758906</v>
+        <v>0.1663754907379934</v>
       </c>
       <c r="C71">
-        <v>7.5019828436932432</v>
+        <v>4.2220794786241758</v>
       </c>
       <c r="D71">
-        <v>11.565413555645719</v>
+        <v>8.2032590032686539</v>
       </c>
       <c r="E71">
-        <v>0.1847195357669261</v>
+        <v>11.86683228909637</v>
       </c>
       <c r="F71">
-        <v>3.807035686908768</v>
+        <v>0.21559012990154319</v>
       </c>
       <c r="G71">
-        <v>8.4967237499209212</v>
+        <v>4.0074451697398192</v>
       </c>
       <c r="H71">
-        <v>12.25137217148483</v>
+        <v>8.1924992240011161</v>
       </c>
       <c r="I71">
-        <v>-4.6648094644404559E-2</v>
+        <v>12.364909619701191</v>
       </c>
       <c r="J71">
-        <v>3.5171941290959432</v>
+        <v>0.20546808539186431</v>
       </c>
       <c r="K71">
-        <v>7.9252459547697729</v>
+        <v>4.3202280018625441</v>
       </c>
       <c r="L71">
-        <v>12.2783222414474</v>
+        <v>7.7479269458773663</v>
       </c>
       <c r="M71">
-        <v>-0.1153714913644376</v>
+        <v>12.04384552948817</v>
       </c>
       <c r="N71">
-        <v>4.0122112567674248</v>
+        <v>-0.39509882321176087</v>
       </c>
       <c r="O71">
-        <v>7.8571723450321906</v>
+        <v>4.048103812363431</v>
       </c>
       <c r="P71">
-        <v>11.81088258038001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>5.0274848703951713E-3</v>
+        <v>8.4339518104281197</v>
+      </c>
+      <c r="Q71">
+        <v>11.56318249927331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>3.5298895654369629</v>
+        <v>0.19606348058966011</v>
       </c>
       <c r="C72">
-        <v>7.5736386399809534</v>
+        <v>4.0394334465097854</v>
       </c>
       <c r="D72">
-        <v>12.20004477318628</v>
+        <v>8.4548297304220057</v>
       </c>
       <c r="E72">
-        <v>-0.32459459381494821</v>
+        <v>12.20640196974017</v>
       </c>
       <c r="F72">
-        <v>4.3965940967654786</v>
+        <v>-0.42611774447460438</v>
       </c>
       <c r="G72">
-        <v>8.3449304080237674</v>
+        <v>3.6194649448312202</v>
       </c>
       <c r="H72">
-        <v>12.109056974681719</v>
+        <v>7.7547928516495306</v>
       </c>
       <c r="I72">
-        <v>-0.32725362017285192</v>
+        <v>12.492090742540711</v>
       </c>
       <c r="J72">
-        <v>4.0135525145655482</v>
+        <v>0.34296606322455458</v>
       </c>
       <c r="K72">
-        <v>7.7769182409997839</v>
+        <v>4.301617214149795</v>
       </c>
       <c r="L72">
-        <v>12.21737375257718</v>
+        <v>7.7756171324130774</v>
       </c>
       <c r="M72">
-        <v>-5.4444342888339992E-2</v>
+        <v>12.44975252524784</v>
       </c>
       <c r="N72">
-        <v>4.0398654264866201</v>
+        <v>5.5957158261079609E-3</v>
       </c>
       <c r="O72">
-        <v>7.6443303789433781</v>
+        <v>4.4371389950373104</v>
       </c>
       <c r="P72">
-        <v>11.5087976301417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>0.2962072372998793</v>
+        <v>7.8906196677795659</v>
+      </c>
+      <c r="Q72">
+        <v>12.15554777919718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>4.3328372199490914</v>
+        <v>0.15144736653381011</v>
       </c>
       <c r="C73">
-        <v>8.2814452882385705</v>
+        <v>4.3200681948950539</v>
       </c>
       <c r="D73">
-        <v>12.1541993346256</v>
+        <v>8.3294816906448155</v>
       </c>
       <c r="E73">
-        <v>-0.16712105008145689</v>
+        <v>12.036487603578999</v>
       </c>
       <c r="F73">
-        <v>4.3511410073256247</v>
+        <v>0.2613887438794299</v>
       </c>
       <c r="G73">
-        <v>8.4515858494928491</v>
+        <v>3.7270527717080082</v>
       </c>
       <c r="H73">
-        <v>11.61022572388414</v>
+        <v>7.6713295653872997</v>
       </c>
       <c r="I73">
-        <v>0.47414347062099937</v>
+        <v>11.57313960916664</v>
       </c>
       <c r="J73">
-        <v>4.478907961370429</v>
+        <v>0.31596895891700538</v>
       </c>
       <c r="K73">
-        <v>7.7832240074234136</v>
+        <v>4.067391231032448</v>
       </c>
       <c r="L73">
-        <v>12.15124696775252</v>
+        <v>7.9637740716069461</v>
       </c>
       <c r="M73">
-        <v>0.23620829873937119</v>
+        <v>12.422144682429391</v>
       </c>
       <c r="N73">
-        <v>4.4129600979154926</v>
+        <v>-1.7273314770140939E-3</v>
       </c>
       <c r="O73">
-        <v>7.9855807189635577</v>
+        <v>3.6940734483100419</v>
       </c>
       <c r="P73">
-        <v>12.28109774573384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>0.31972728400090628</v>
+        <v>7.6767537633209972</v>
+      </c>
+      <c r="Q73">
+        <v>12.23998815120776</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>4.2528579822057786</v>
+        <v>9.212177185483561E-2</v>
       </c>
       <c r="C74">
-        <v>8.4482789284018764</v>
+        <v>4.1538534784894194</v>
       </c>
       <c r="D74">
-        <v>12.49456185122202</v>
+        <v>8.1559039532492168</v>
       </c>
       <c r="E74">
-        <v>-0.4512003241475504</v>
+        <v>12.32649249994064</v>
       </c>
       <c r="F74">
-        <v>3.5613737195720878</v>
+        <v>-0.27466133124988501</v>
       </c>
       <c r="G74">
-        <v>8.1448551490881531</v>
+        <v>3.9743573957529388</v>
       </c>
       <c r="H74">
-        <v>11.91454882717121</v>
+        <v>8.1856781462783363</v>
       </c>
       <c r="I74">
-        <v>-0.1708147772749781</v>
+        <v>12.25593028320289</v>
       </c>
       <c r="J74">
-        <v>4.0469331808399236</v>
+        <v>-0.18702093407565121</v>
       </c>
       <c r="K74">
-        <v>7.9883227552096772</v>
+        <v>3.856796276850869</v>
       </c>
       <c r="L74">
-        <v>11.67296871544618</v>
+        <v>8.048552283821989</v>
       </c>
       <c r="M74">
-        <v>0.2376974850867247</v>
+        <v>12.350752371059309</v>
       </c>
       <c r="N74">
-        <v>4.3859168651146252</v>
+        <v>-0.42006381383705987</v>
       </c>
       <c r="O74">
-        <v>7.7574271081006554</v>
+        <v>3.7989891394711881</v>
       </c>
       <c r="P74">
-        <v>11.79372106160575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>0.37858897226109672</v>
+        <v>8.3366478035356355</v>
+      </c>
+      <c r="Q74">
+        <v>12.115638522097139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>3.9672508084467459</v>
+        <v>-2.5960967042758409E-2</v>
       </c>
       <c r="C75">
-        <v>7.7612527577841881</v>
+        <v>4.3808682784323159</v>
       </c>
       <c r="D75">
-        <v>12.28479892111867</v>
+        <v>7.7176084414854884</v>
       </c>
       <c r="E75">
-        <v>-0.27330939339913929</v>
+        <v>11.978119745541919</v>
       </c>
       <c r="F75">
-        <v>3.8384827472218062</v>
+        <v>0.39259345856212419</v>
       </c>
       <c r="G75">
-        <v>8.2096962258112107</v>
+        <v>4.4511487951215001</v>
       </c>
       <c r="H75">
-        <v>11.833357107391439</v>
+        <v>7.7866717586251619</v>
       </c>
       <c r="I75">
-        <v>0.26445107405366852</v>
+        <v>11.80783412687973</v>
       </c>
       <c r="J75">
-        <v>3.6476056727600921</v>
+        <v>-9.0706841782691727E-2</v>
       </c>
       <c r="K75">
-        <v>7.5905688164916896</v>
+        <v>4.1380227072159164</v>
       </c>
       <c r="L75">
-        <v>12.048578822820771</v>
+        <v>7.7342416280240407</v>
       </c>
       <c r="M75">
-        <v>-0.1109867942752273</v>
+        <v>11.626890400736171</v>
       </c>
       <c r="N75">
-        <v>4.0072077327698601</v>
+        <v>0.29595697976222629</v>
       </c>
       <c r="O75">
-        <v>8.1611193431291742</v>
+        <v>4.0870622697311276</v>
       </c>
       <c r="P75">
-        <v>12.1980236628248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>-0.19208430744452901</v>
+        <v>7.909316275820081</v>
+      </c>
+      <c r="Q75">
+        <v>12.42049768448247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>4.143016915044119</v>
+        <v>-0.4754409255406622</v>
       </c>
       <c r="C76">
-        <v>7.815806766235438</v>
+        <v>3.7171674612374561</v>
       </c>
       <c r="D76">
-        <v>12.49389064734795</v>
+        <v>7.7479187721069076</v>
       </c>
       <c r="E76">
-        <v>-0.1671561322867591</v>
+        <v>12.14646856710087</v>
       </c>
       <c r="F76">
-        <v>4.3319184795301444</v>
+        <v>-0.45895830136784521</v>
       </c>
       <c r="G76">
-        <v>7.863990126037633</v>
+        <v>3.7721001035884889</v>
       </c>
       <c r="H76">
-        <v>11.85860526492541</v>
+        <v>8.4370722739593322</v>
       </c>
       <c r="I76">
-        <v>-0.14260949503861001</v>
+        <v>12.497460480110741</v>
       </c>
       <c r="J76">
-        <v>4.4963404239123079</v>
+        <v>0.49327038038145848</v>
       </c>
       <c r="K76">
-        <v>8.3962024698586966</v>
+        <v>4.2723137304537717</v>
       </c>
       <c r="L76">
-        <v>11.594351110277209</v>
+        <v>7.5246512029901798</v>
       </c>
       <c r="M76">
-        <v>0.1128255271412781</v>
+        <v>11.73919861547679</v>
       </c>
       <c r="N76">
-        <v>4.3956376877975529</v>
+        <v>-0.12941080571350061</v>
       </c>
       <c r="O76">
-        <v>8.2901321215242483</v>
+        <v>4.0766867542842604</v>
       </c>
       <c r="P76">
-        <v>11.91175763199017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>0.28676062033691402</v>
+        <v>7.5979095551266154</v>
+      </c>
+      <c r="Q76">
+        <v>12.432871622772639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>4.0795428132044638</v>
+        <v>-0.33285593206236319</v>
       </c>
       <c r="C77">
-        <v>7.7423557659523503</v>
+        <v>3.9404056210557168</v>
       </c>
       <c r="D77">
-        <v>12.00701932778942</v>
+        <v>7.6099664702980672</v>
       </c>
       <c r="E77">
-        <v>0.31766798441632138</v>
+        <v>11.5625154781172</v>
       </c>
       <c r="F77">
-        <v>4.0040596978287377</v>
+        <v>0.4142120910068241</v>
       </c>
       <c r="G77">
-        <v>7.9880397405078982</v>
+        <v>3.8671869377012791</v>
       </c>
       <c r="H77">
-        <v>12.3632287213956</v>
+        <v>8.3149226577258641</v>
       </c>
       <c r="I77">
-        <v>9.3619167358823252E-2</v>
+        <v>12.299512325232669</v>
       </c>
       <c r="J77">
-        <v>4.374959958507433</v>
+        <v>-5.9107364095432158E-2</v>
       </c>
       <c r="K77">
-        <v>7.9580635631945738</v>
+        <v>4.4677463415927701</v>
       </c>
       <c r="L77">
-        <v>11.6710324842707</v>
+        <v>8.30245219504617</v>
       </c>
       <c r="M77">
-        <v>0.22114843279583421</v>
+        <v>12.277415788275</v>
       </c>
       <c r="N77">
-        <v>3.654245641933008</v>
+        <v>-0.13962014343040391</v>
       </c>
       <c r="O77">
-        <v>8.1949001835829467</v>
+        <v>3.803062277812614</v>
       </c>
       <c r="P77">
-        <v>12.266327983962549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>0.27005844552824732</v>
+        <v>8.0419075761244141</v>
+      </c>
+      <c r="Q77">
+        <v>11.9296473883762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>4.3222245258403262</v>
+        <v>-0.16361900391219381</v>
       </c>
       <c r="C78">
-        <v>7.774982652247771</v>
+        <v>3.9104045781044769</v>
       </c>
       <c r="D78">
-        <v>12.123058073850981</v>
+        <v>8.4915629629200922</v>
       </c>
       <c r="E78">
-        <v>-7.5021477058319066E-3</v>
+        <v>12.48457013765638</v>
       </c>
       <c r="F78">
-        <v>3.5031399710565938</v>
+        <v>-0.16976792461625609</v>
       </c>
       <c r="G78">
-        <v>8.3736101660167837</v>
+        <v>4.2739147559455724</v>
       </c>
       <c r="H78">
-        <v>11.761616325870071</v>
+        <v>8.336674168090946</v>
       </c>
       <c r="I78">
-        <v>3.9927113669541943E-2</v>
+        <v>12.310726037708839</v>
       </c>
       <c r="J78">
-        <v>3.6370896810926641</v>
+        <v>0.28949223338391039</v>
       </c>
       <c r="K78">
-        <v>8.1916010781445348</v>
+        <v>4.4960002562231374</v>
       </c>
       <c r="L78">
-        <v>11.881682790961261</v>
+        <v>8.475684054269319</v>
       </c>
       <c r="M78">
-        <v>0.16562346858627641</v>
+        <v>11.928028715011211</v>
       </c>
       <c r="N78">
-        <v>3.7091879441404818</v>
+        <v>-0.1554956353059477</v>
       </c>
       <c r="O78">
-        <v>8.1085840310930326</v>
+        <v>3.5328472799413939</v>
       </c>
       <c r="P78">
-        <v>12.433114304636611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>-0.48913295577841748</v>
+        <v>8.2706396709610068</v>
+      </c>
+      <c r="Q78">
+        <v>12.262414230141109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>3.876973792469816</v>
+        <v>0.2041471388707102</v>
       </c>
       <c r="C79">
-        <v>7.5759562391058299</v>
+        <v>4.3922305263248953</v>
       </c>
       <c r="D79">
-        <v>11.78876615917077</v>
+        <v>7.7123701009378687</v>
       </c>
       <c r="E79">
-        <v>0.3013128761379199</v>
+        <v>11.80958347712097</v>
       </c>
       <c r="F79">
-        <v>3.658682931581656</v>
+        <v>0.46326791547832319</v>
       </c>
       <c r="G79">
-        <v>7.8076379097641322</v>
+        <v>4.4534006527902434</v>
       </c>
       <c r="H79">
-        <v>11.76327732565079</v>
+        <v>8.3697163739721603</v>
       </c>
       <c r="I79">
-        <v>-0.3712642835158485</v>
+        <v>12.27868359790242</v>
       </c>
       <c r="J79">
-        <v>4.3328637090808391</v>
+        <v>0.48100272974284253</v>
       </c>
       <c r="K79">
-        <v>7.7696411439341198</v>
+        <v>4.2229163855247789</v>
       </c>
       <c r="L79">
-        <v>11.83672563677286</v>
+        <v>8.3675506188168445</v>
       </c>
       <c r="M79">
-        <v>0.28803504906247829</v>
+        <v>11.573229206399651</v>
       </c>
       <c r="N79">
-        <v>4.2869550664814522</v>
+        <v>-0.35338992989240248</v>
       </c>
       <c r="O79">
-        <v>7.5548933488223318</v>
+        <v>3.5483578659135619</v>
       </c>
       <c r="P79">
-        <v>11.73411183821074</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>0.21018679285694519</v>
+        <v>8.4053891814026755</v>
+      </c>
+      <c r="Q79">
+        <v>11.68842936535132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>3.6521932071236809</v>
+        <v>-0.41361287741738678</v>
       </c>
       <c r="C80">
-        <v>7.5021311675877449</v>
+        <v>4.423828531756719</v>
       </c>
       <c r="D80">
-        <v>11.54670057628099</v>
+        <v>8.3747316548569462</v>
       </c>
       <c r="E80">
-        <v>-0.350099572857551</v>
+        <v>12.174448408896049</v>
       </c>
       <c r="F80">
-        <v>3.724091034847858</v>
+        <v>0.41047768159687081</v>
       </c>
       <c r="G80">
-        <v>8.0113397159800606</v>
+        <v>3.9117429327363049</v>
       </c>
       <c r="H80">
-        <v>11.962893556100481</v>
+        <v>8.00406835769029</v>
       </c>
       <c r="I80">
-        <v>-0.30064676381483108</v>
+        <v>11.517881518149251</v>
       </c>
       <c r="J80">
-        <v>3.5210525005119999</v>
+        <v>-0.28682449840600083</v>
       </c>
       <c r="K80">
-        <v>8.2127237975551264</v>
+        <v>4.2425380682941851</v>
       </c>
       <c r="L80">
-        <v>11.901375081951169</v>
+        <v>7.6315985407043598</v>
       </c>
       <c r="M80">
-        <v>-0.1087836866829365</v>
+        <v>12.48262003194966</v>
       </c>
       <c r="N80">
-        <v>3.8972990895045512</v>
+        <v>0.30078117392586468</v>
       </c>
       <c r="O80">
-        <v>7.7070679768315991</v>
+        <v>4.3114890687215963</v>
       </c>
       <c r="P80">
-        <v>12.06181492978407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>-0.27924535106797349</v>
+        <v>7.8091313380384149</v>
+      </c>
+      <c r="Q80">
+        <v>11.65176563785065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>4.2702329236172387</v>
+        <v>1.9712872341388521E-2</v>
       </c>
       <c r="C81">
-        <v>7.939318450552074</v>
+        <v>4.3749134493777682</v>
       </c>
       <c r="D81">
-        <v>11.522001386499131</v>
+        <v>7.7418731247048251</v>
       </c>
       <c r="E81">
-        <v>0.1012149760175194</v>
+        <v>12.360496352814719</v>
       </c>
       <c r="F81">
-        <v>3.6495398662019558</v>
+        <v>-0.41087716305017519</v>
       </c>
       <c r="G81">
-        <v>8.1647493778470288</v>
+        <v>4.2565555915295246</v>
       </c>
       <c r="H81">
-        <v>11.798829182610559</v>
+        <v>7.5332819621894718</v>
       </c>
       <c r="I81">
-        <v>0.2673805595965989</v>
+        <v>11.99873632244851</v>
       </c>
       <c r="J81">
-        <v>3.8528530818884801</v>
+        <v>0.35899837067762552</v>
       </c>
       <c r="K81">
-        <v>7.938020111698509</v>
+        <v>3.968499449216174</v>
       </c>
       <c r="L81">
-        <v>12.21317851653383</v>
+        <v>8.3355201192688924</v>
       </c>
       <c r="M81">
-        <v>-0.38838808550239129</v>
+        <v>12.278582896007221</v>
       </c>
       <c r="N81">
-        <v>4.4704517551840777</v>
+        <v>-8.688902844040336E-2</v>
       </c>
       <c r="O81">
-        <v>8.1079790229525006</v>
+        <v>4.1976051565931796</v>
       </c>
       <c r="P81">
-        <v>11.76482388235333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>-4.1364041157951892E-3</v>
+        <v>8.1046004180383822</v>
+      </c>
+      <c r="Q81">
+        <v>11.764778918419379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>3.6246448330300831</v>
+        <v>-0.28339608486477558</v>
       </c>
       <c r="C82">
-        <v>8.3030842124894004</v>
+        <v>4.4926471068695433</v>
       </c>
       <c r="D82">
-        <v>11.996218612718931</v>
+        <v>8.3487104395569069</v>
       </c>
       <c r="E82">
-        <v>-0.34606509867945201</v>
+        <v>11.60429778260859</v>
       </c>
       <c r="F82">
-        <v>3.7564598834207539</v>
+        <v>-0.48323269238813449</v>
       </c>
       <c r="G82">
-        <v>8.1908705301328659</v>
+        <v>4.1402767816242454</v>
       </c>
       <c r="H82">
-        <v>12.05071044722961</v>
+        <v>8.3565696440256758</v>
       </c>
       <c r="I82">
-        <v>-8.9868029153480911E-2</v>
+        <v>12.43793039530402</v>
       </c>
       <c r="J82">
-        <v>4.173213353015897</v>
+        <v>-0.2098370709075921</v>
       </c>
       <c r="K82">
-        <v>7.6795275155229241</v>
+        <v>3.9715351413641522</v>
       </c>
       <c r="L82">
-        <v>12.19832461829593</v>
+        <v>7.5908152283929722</v>
       </c>
       <c r="M82">
-        <v>-1.3313697864058009E-3</v>
+        <v>12.43171011499884</v>
       </c>
       <c r="N82">
-        <v>3.5672263122122461</v>
+        <v>4.1517171764725469E-2</v>
       </c>
       <c r="O82">
-        <v>8.0107509874544292</v>
+        <v>4.3332656205902156</v>
       </c>
       <c r="P82">
-        <v>12.20503107870482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>-0.46152239055932409</v>
+        <v>7.8245900888040572</v>
+      </c>
+      <c r="Q82">
+        <v>11.76769261532022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>3.6229523913118649</v>
+        <v>0.46200164354379453</v>
       </c>
       <c r="C83">
-        <v>8.0428817273419746</v>
+        <v>4.4516087728350557</v>
       </c>
       <c r="D83">
-        <v>11.891178093612339</v>
+        <v>8.4863621469736437</v>
       </c>
       <c r="E83">
-        <v>8.2765986403626979E-2</v>
+        <v>11.91745742279614</v>
       </c>
       <c r="F83">
-        <v>4.3906750085964203</v>
+        <v>6.4818609667386728E-2</v>
       </c>
       <c r="G83">
-        <v>7.6805704095422263</v>
+        <v>3.7308828918270192</v>
       </c>
       <c r="H83">
-        <v>12.326300631931209</v>
+        <v>7.7649338800094343</v>
       </c>
       <c r="I83">
-        <v>-0.39476306312902371</v>
+        <v>11.893960373995441</v>
       </c>
       <c r="J83">
-        <v>3.9929037224981498</v>
+        <v>-0.17485095701410039</v>
       </c>
       <c r="K83">
-        <v>7.6475125544150373</v>
+        <v>4.1603660920165346</v>
       </c>
       <c r="L83">
-        <v>12.46198527428554</v>
+        <v>7.6920834210851439</v>
       </c>
       <c r="M83">
-        <v>-9.937983052870325E-2</v>
+        <v>12.21111678925991</v>
       </c>
       <c r="N83">
-        <v>4.163047762477964</v>
+        <v>0.20281488767757061</v>
       </c>
       <c r="O83">
-        <v>7.9565867437856959</v>
+        <v>4.0120712519815438</v>
       </c>
       <c r="P83">
-        <v>12.32748386151914</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>-0.29306387280203439</v>
+        <v>7.5912681105775306</v>
+      </c>
+      <c r="Q83">
+        <v>11.721754736448769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>3.7438907027768038</v>
+        <v>-0.40771259031055063</v>
       </c>
       <c r="C84">
-        <v>7.5738518544725686</v>
+        <v>4.3327881473231269</v>
       </c>
       <c r="D84">
-        <v>12.441733820696159</v>
+        <v>7.6172324218059817</v>
       </c>
       <c r="E84">
-        <v>5.734420135972762E-2</v>
+        <v>12.02225136906099</v>
       </c>
       <c r="F84">
-        <v>4.1978831559330878</v>
+        <v>0.33126050403952229</v>
       </c>
       <c r="G84">
-        <v>8.3049072316926953</v>
+        <v>4.3698607224932626</v>
       </c>
       <c r="H84">
-        <v>11.583473126337941</v>
+        <v>8.1618576118741437</v>
       </c>
       <c r="I84">
-        <v>0.16417600146473699</v>
+        <v>11.809138346236381</v>
       </c>
       <c r="J84">
-        <v>3.688667994917644</v>
+        <v>0.2272261776161448</v>
       </c>
       <c r="K84">
-        <v>7.787053728888722</v>
+        <v>4.1205797451760127</v>
       </c>
       <c r="L84">
-        <v>11.77600942261018</v>
+        <v>8.3935577411666511</v>
       </c>
       <c r="M84">
-        <v>-0.16230500334433401</v>
+        <v>11.572887949766921</v>
       </c>
       <c r="N84">
-        <v>3.5696993902319569</v>
+        <v>0.36129107232920937</v>
       </c>
       <c r="O84">
-        <v>8.2104956650756495</v>
+        <v>3.72532765512319</v>
       </c>
       <c r="P84">
-        <v>12.392240175058591</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>0.24016928003795401</v>
+        <v>7.6496204566371304</v>
+      </c>
+      <c r="Q84">
+        <v>11.901011783471629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>4.3730967775561407</v>
+        <v>-0.38324456497513648</v>
       </c>
       <c r="C85">
-        <v>8.1599001903595401</v>
+        <v>3.69020448833253</v>
       </c>
       <c r="D85">
-        <v>11.88856000538439</v>
+        <v>8.3400883777916803</v>
       </c>
       <c r="E85">
-        <v>9.7543265023659398E-2</v>
+        <v>11.792696920029719</v>
       </c>
       <c r="F85">
-        <v>3.919371851191114</v>
+        <v>3.4508384770131302E-2</v>
       </c>
       <c r="G85">
-        <v>8.435657768315016</v>
+        <v>3.835598974500813</v>
       </c>
       <c r="H85">
-        <v>12.06633468759172</v>
+        <v>8.3039569677931926</v>
       </c>
       <c r="I85">
-        <v>0.24337693035265359</v>
+        <v>12.33658894744736</v>
       </c>
       <c r="J85">
-        <v>4.1145504133491304</v>
+        <v>-0.32729501640405068</v>
       </c>
       <c r="K85">
-        <v>7.7943358535759586</v>
+        <v>4.112122792686419</v>
       </c>
       <c r="L85">
-        <v>11.70828060629484</v>
+        <v>8.3514521707064393</v>
       </c>
       <c r="M85">
-        <v>-0.4418364503088904</v>
+        <v>12.263137267220049</v>
       </c>
       <c r="N85">
-        <v>3.845847903718064</v>
+        <v>0.12620430370866881</v>
       </c>
       <c r="O85">
-        <v>7.6103547937531761</v>
+        <v>3.9537791687135031</v>
       </c>
       <c r="P85">
-        <v>11.916129497103091</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>-0.40980604089061001</v>
+        <v>7.6875499673885086</v>
+      </c>
+      <c r="Q85">
+        <v>11.53363190415295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>3.904408486736227</v>
+        <v>-9.8151083004165307E-2</v>
       </c>
       <c r="C86">
-        <v>8.4259623007484787</v>
+        <v>3.658640800872639</v>
       </c>
       <c r="D86">
-        <v>12.2288044289291</v>
+        <v>7.8056564367771051</v>
       </c>
       <c r="E86">
-        <v>-0.46191869924473961</v>
+        <v>11.71143491989938</v>
       </c>
       <c r="F86">
-        <v>4.2414285326344467</v>
+        <v>0.38832922462729769</v>
       </c>
       <c r="G86">
-        <v>7.6974984652449567</v>
+        <v>4.3096186663679656</v>
       </c>
       <c r="H86">
-        <v>12.08571278877646</v>
+        <v>8.4167535744103947</v>
       </c>
       <c r="I86">
-        <v>0.24185827007681551</v>
+        <v>12.09704049518454</v>
       </c>
       <c r="J86">
-        <v>3.8345719914983452</v>
+        <v>-0.16690667082773161</v>
       </c>
       <c r="K86">
-        <v>7.6217554616551224</v>
+        <v>4.2676970592475909</v>
       </c>
       <c r="L86">
-        <v>11.57273689570164</v>
+        <v>8.4379984683105871</v>
       </c>
       <c r="M86">
-        <v>-0.16140268834095259</v>
+        <v>12.35101721124988</v>
       </c>
       <c r="N86">
-        <v>4.4564961798127261</v>
+        <v>9.9180112737063064E-2</v>
       </c>
       <c r="O86">
-        <v>8.4211136371019393</v>
+        <v>3.5242363262817609</v>
       </c>
       <c r="P86">
-        <v>11.589374400774309</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>-0.47509378113055373</v>
+        <v>8.2879190273127676</v>
+      </c>
+      <c r="Q86">
+        <v>12.163038679908279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>4.296972143575065</v>
+        <v>0.32379875063909358</v>
       </c>
       <c r="C87">
-        <v>8.1802191134136795</v>
+        <v>3.8261233343300418</v>
       </c>
       <c r="D87">
-        <v>11.66040131667221</v>
+        <v>7.5705672904232282</v>
       </c>
       <c r="E87">
-        <v>-0.46389769531142638</v>
+        <v>12.406224321354941</v>
       </c>
       <c r="F87">
-        <v>3.6854885268469229</v>
+        <v>-0.40386993131533527</v>
       </c>
       <c r="G87">
-        <v>7.9231991332962206</v>
+        <v>3.9812248131015222</v>
       </c>
       <c r="H87">
-        <v>11.99301573555446</v>
+        <v>8.1668475637204239</v>
       </c>
       <c r="I87">
-        <v>0.26854980043433607</v>
+        <v>11.9590369230683</v>
       </c>
       <c r="J87">
-        <v>3.6028611567046558</v>
+        <v>-9.5655252039274274E-2</v>
       </c>
       <c r="K87">
-        <v>7.9915069171296036</v>
+        <v>4.0683861528673306</v>
       </c>
       <c r="L87">
-        <v>12.355283180806961</v>
+        <v>8.3872220627445753</v>
       </c>
       <c r="M87">
-        <v>-0.47917777305459808</v>
+        <v>12.260591053158381</v>
       </c>
       <c r="N87">
-        <v>3.931001826868862</v>
+        <v>-0.1130027151220387</v>
       </c>
       <c r="O87">
-        <v>8.3385944073658003</v>
+        <v>4.461916433831612</v>
       </c>
       <c r="P87">
-        <v>11.54512602642772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>0.41698021293683651</v>
+        <v>7.576605382609034</v>
+      </c>
+      <c r="Q87">
+        <v>11.58989021603713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>3.816750016035527</v>
+        <v>-0.1544872374003278</v>
       </c>
       <c r="C88">
-        <v>7.9715181006754632</v>
+        <v>4.3435852955987881</v>
       </c>
       <c r="D88">
-        <v>12.24258154404278</v>
+        <v>7.6691776673906222</v>
       </c>
       <c r="E88">
-        <v>-0.40020657793385911</v>
+        <v>12.3526692819089</v>
       </c>
       <c r="F88">
-        <v>4.0855475703244606</v>
+        <v>0.17878983389106351</v>
       </c>
       <c r="G88">
-        <v>8.4391811091354931</v>
+        <v>3.6635247801223429</v>
       </c>
       <c r="H88">
-        <v>11.550560915662119</v>
+        <v>8.0542535628286878</v>
       </c>
       <c r="I88">
-        <v>0.20190241246736729</v>
+        <v>12.28854418444369</v>
       </c>
       <c r="J88">
-        <v>3.633895656590147</v>
+        <v>0.36635184392461212</v>
       </c>
       <c r="K88">
-        <v>8.0997230039888883</v>
+        <v>4.4935375755800466</v>
       </c>
       <c r="L88">
-        <v>11.86664317881125</v>
+        <v>7.6683935480690604</v>
       </c>
       <c r="M88">
-        <v>0.38869974025380338</v>
+        <v>12.34560182035562</v>
       </c>
       <c r="N88">
-        <v>4.2674789131312876</v>
+        <v>-0.1616105433384695</v>
       </c>
       <c r="O88">
-        <v>7.7182996123270318</v>
+        <v>3.9610194836291348</v>
       </c>
       <c r="P88">
-        <v>11.891785701649299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>-0.42203781800557122</v>
+        <v>7.9002468671265271</v>
+      </c>
+      <c r="Q88">
+        <v>12.15514527789683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>3.501448019240315</v>
+        <v>-6.9708935817582751E-2</v>
       </c>
       <c r="C89">
-        <v>8.4756968034591846</v>
+        <v>3.6267579564135288</v>
       </c>
       <c r="D89">
-        <v>11.831643868333289</v>
+        <v>7.8444179666765557</v>
       </c>
       <c r="E89">
-        <v>0.34853687514844661</v>
+        <v>12.416188847819409</v>
       </c>
       <c r="F89">
-        <v>4.4924346959971588</v>
+        <v>0.24059477147537359</v>
       </c>
       <c r="G89">
-        <v>7.9772094730296024</v>
+        <v>3.937076454484739</v>
       </c>
       <c r="H89">
-        <v>12.062282092770859</v>
+        <v>8.4614426413284836</v>
       </c>
       <c r="I89">
-        <v>-9.5004294895729369E-2</v>
+        <v>12.11261254941704</v>
       </c>
       <c r="J89">
-        <v>4.4144419900395242</v>
+        <v>0.18660521183596709</v>
       </c>
       <c r="K89">
-        <v>7.7388948737345631</v>
+        <v>4.3295565683268178</v>
       </c>
       <c r="L89">
-        <v>11.691986750280639</v>
+        <v>7.9306601068615734</v>
       </c>
       <c r="M89">
-        <v>-0.26209170782430058</v>
+        <v>11.668114883367471</v>
       </c>
       <c r="N89">
-        <v>4.4083800452010751</v>
+        <v>0.1247628420081356</v>
       </c>
       <c r="O89">
-        <v>8.4283245822176198</v>
+        <v>4.0991768353477829</v>
       </c>
       <c r="P89">
-        <v>12.499511820803461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>-2.9970880302084609E-2</v>
+        <v>7.6401613307999954</v>
+      </c>
+      <c r="Q89">
+        <v>12.45522229093822</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>4.2139794678893727</v>
+        <v>-1.6869778994943681E-2</v>
       </c>
       <c r="C90">
-        <v>8.0746637471039282</v>
+        <v>3.6105416611596421</v>
       </c>
       <c r="D90">
-        <v>11.88609696711266</v>
+        <v>7.7599615204801227</v>
       </c>
       <c r="E90">
-        <v>7.2261565630305169E-2</v>
+        <v>11.928914754810361</v>
       </c>
       <c r="F90">
-        <v>4.3578947847470362</v>
+        <v>-8.5369594062485454E-2</v>
       </c>
       <c r="G90">
-        <v>8.4607847198853907</v>
+        <v>4.400659218445333</v>
       </c>
       <c r="H90">
-        <v>11.64374569059415</v>
+        <v>7.6805023133834949</v>
       </c>
       <c r="I90">
-        <v>0.46084161921827871</v>
+        <v>12.09488967249049</v>
       </c>
       <c r="J90">
-        <v>3.6317921734627312</v>
+        <v>-0.41965977899546703</v>
       </c>
       <c r="K90">
-        <v>7.9698217019977848</v>
+        <v>4.1433646836691826</v>
       </c>
       <c r="L90">
-        <v>11.835896806236301</v>
+        <v>8.2454484468237155</v>
       </c>
       <c r="M90">
-        <v>0.12530592962088419</v>
+        <v>11.78735363660827</v>
       </c>
       <c r="N90">
-        <v>4.2470816367559392</v>
+        <v>0.39904407113874929</v>
       </c>
       <c r="O90">
-        <v>7.963320052550598</v>
+        <v>4.2108106849622136</v>
       </c>
       <c r="P90">
-        <v>12.17023662837922</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>0.1381256750015859</v>
+        <v>8.1373196468110631</v>
+      </c>
+      <c r="Q90">
+        <v>12.44635696535379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>3.559344345429329</v>
+        <v>-0.29457072542225848</v>
       </c>
       <c r="C91">
-        <v>8.4140918870460499</v>
+        <v>3.8481071738057562</v>
       </c>
       <c r="D91">
-        <v>12.07375248522191</v>
+        <v>8.0487909865687044</v>
       </c>
       <c r="E91">
-        <v>-0.19068593976128689</v>
+        <v>12.03114650317489</v>
       </c>
       <c r="F91">
-        <v>4.3333616106425854</v>
+        <v>0.28193647180498582</v>
       </c>
       <c r="G91">
-        <v>7.7696439429132607</v>
+        <v>4.3765614502585972</v>
       </c>
       <c r="H91">
-        <v>12.016002375146099</v>
+        <v>7.6184009241864263</v>
       </c>
       <c r="I91">
-        <v>0.1382632604745975</v>
+        <v>12.470738433067471</v>
       </c>
       <c r="J91">
-        <v>3.9522916322773201</v>
+        <v>-0.38331809815610129</v>
       </c>
       <c r="K91">
-        <v>8.4443627504172927</v>
+        <v>4.3963866566027248</v>
       </c>
       <c r="L91">
-        <v>12.269244970519789</v>
+        <v>8.374767883670339</v>
       </c>
       <c r="M91">
-        <v>9.3655912537769392E-2</v>
+        <v>11.802986674041589</v>
       </c>
       <c r="N91">
-        <v>4.4384225321115354</v>
+        <v>0.31648091280480839</v>
       </c>
       <c r="O91">
-        <v>7.5528725570116579</v>
+        <v>4.0579714542952017</v>
       </c>
       <c r="P91">
-        <v>11.99020046599011</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>0.17486633539217891</v>
+        <v>7.7270907019503019</v>
+      </c>
+      <c r="Q91">
+        <v>12.37392852724029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>3.724515753698014</v>
+        <v>0.30570008548903638</v>
       </c>
       <c r="C92">
-        <v>7.649717305945174</v>
+        <v>3.5927594854885578</v>
       </c>
       <c r="D92">
-        <v>12.05571737033957</v>
+        <v>8.4521117819709914</v>
       </c>
       <c r="E92">
-        <v>0.17257017348226869</v>
+        <v>11.75829153401242</v>
       </c>
       <c r="F92">
-        <v>4.486656177815644</v>
+        <v>0.39083373660685838</v>
       </c>
       <c r="G92">
-        <v>7.9891338227170081</v>
+        <v>4.3785176355812867</v>
       </c>
       <c r="H92">
-        <v>12.325402740664449</v>
+        <v>7.9140971272789056</v>
       </c>
       <c r="I92">
-        <v>0.48263760354643931</v>
+        <v>11.975894929326421</v>
       </c>
       <c r="J92">
-        <v>3.7318412948984099</v>
+        <v>-0.15605162008761439</v>
       </c>
       <c r="K92">
-        <v>8.1059139550090951</v>
+        <v>4.2172074593277742</v>
       </c>
       <c r="L92">
-        <v>11.932737671769511</v>
+        <v>7.6833298212542491</v>
       </c>
       <c r="M92">
-        <v>-0.15015911689021341</v>
+        <v>12.21768917526056</v>
       </c>
       <c r="N92">
-        <v>3.6148816122592331</v>
+        <v>-0.49593377066960359</v>
       </c>
       <c r="O92">
-        <v>8.1189940853787874</v>
+        <v>4.1962278670146489</v>
       </c>
       <c r="P92">
-        <v>11.819357513454291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>0.19524815996009501</v>
+        <v>7.9625125576069511</v>
+      </c>
+      <c r="Q92">
+        <v>12.339076287817591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>4.2245317727161664</v>
+        <v>-7.4121382973748484E-2</v>
       </c>
       <c r="C93">
-        <v>8.0976143721054115</v>
+        <v>4.1835390364939924</v>
       </c>
       <c r="D93">
-        <v>12.305580001918081</v>
+        <v>8.0857470986712627</v>
       </c>
       <c r="E93">
-        <v>0.33484668411848512</v>
+        <v>12.373296436432421</v>
       </c>
       <c r="F93">
-        <v>3.5881824510773148</v>
+        <v>-0.30383542668202768</v>
       </c>
       <c r="G93">
-        <v>7.6081603844091914</v>
+        <v>3.768888846676782</v>
       </c>
       <c r="H93">
-        <v>12.18988724318843</v>
+        <v>8.14686162687563</v>
       </c>
       <c r="I93">
-        <v>-0.15064362692487721</v>
+        <v>11.86937480154956</v>
       </c>
       <c r="J93">
-        <v>3.9574470494022962</v>
+        <v>2.4627880216102849E-2</v>
       </c>
       <c r="K93">
-        <v>7.5132628863663724</v>
+        <v>4.1866026320185732</v>
       </c>
       <c r="L93">
-        <v>11.64365294243005</v>
+        <v>8.4911604299764907</v>
       </c>
       <c r="M93">
-        <v>0.24050840233966969</v>
+        <v>12.18218789647085</v>
       </c>
       <c r="N93">
-        <v>3.9066498675919612</v>
+        <v>-0.19912875568139099</v>
       </c>
       <c r="O93">
-        <v>7.9120629455498683</v>
+        <v>3.9460192790343349</v>
       </c>
       <c r="P93">
-        <v>11.52073247934131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>-0.29327856475432029</v>
+        <v>8.3081894302583219</v>
+      </c>
+      <c r="Q93">
+        <v>11.82545287371356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>3.5356929109811399</v>
+        <v>7.7837935620912901E-2</v>
       </c>
       <c r="C94">
-        <v>8.1906776518231332</v>
+        <v>4.3229347834016476</v>
       </c>
       <c r="D94">
-        <v>11.99019329986807</v>
+        <v>8.2356290120725522</v>
       </c>
       <c r="E94">
-        <v>-0.21418375916754739</v>
+        <v>12.27098055716265</v>
       </c>
       <c r="F94">
-        <v>4.4674183743954847</v>
+        <v>-0.18930738250304779</v>
       </c>
       <c r="G94">
-        <v>7.618375555521391</v>
+        <v>4.1890281978067296</v>
       </c>
       <c r="H94">
-        <v>11.524069435666171</v>
+        <v>8.2003119776541507</v>
       </c>
       <c r="I94">
-        <v>-0.41801463811942402</v>
+        <v>12.21560661772777</v>
       </c>
       <c r="J94">
-        <v>3.841850056823938</v>
+        <v>0.36447348187952511</v>
       </c>
       <c r="K94">
-        <v>8.0546678321612415</v>
+        <v>3.7451353706182782</v>
       </c>
       <c r="L94">
-        <v>11.629259319438111</v>
+        <v>8.3853718356743769</v>
       </c>
       <c r="M94">
-        <v>-0.27076889116016889</v>
+        <v>12.01417471543801</v>
       </c>
       <c r="N94">
-        <v>3.507489162873211</v>
+        <v>7.6785853790896197E-2</v>
       </c>
       <c r="O94">
-        <v>7.8037249121877448</v>
+        <v>3.7776382051777739</v>
       </c>
       <c r="P94">
-        <v>11.94340564480369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>3.9228691620536438E-3</v>
+        <v>8.0978313688734609</v>
+      </c>
+      <c r="Q94">
+        <v>12.31068020552193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>3.6889216775847071</v>
+        <v>-7.9700151198595415E-2</v>
       </c>
       <c r="C95">
-        <v>7.7339480267242822</v>
+        <v>4.0654840325482997</v>
       </c>
       <c r="D95">
-        <v>11.955208870310731</v>
+        <v>8.3118880915407001</v>
       </c>
       <c r="E95">
-        <v>-0.19808355485496171</v>
+        <v>12.10032723750809</v>
       </c>
       <c r="F95">
-        <v>4.124106814492654</v>
+        <v>0.37963849388303622</v>
       </c>
       <c r="G95">
-        <v>7.6515388005910134</v>
+        <v>4.3734469879779541</v>
       </c>
       <c r="H95">
-        <v>11.988012846620959</v>
+        <v>8.3112649047751219</v>
       </c>
       <c r="I95">
-        <v>-0.2069999906990759</v>
+        <v>12.452645203486719</v>
       </c>
       <c r="J95">
-        <v>4.4823792371528013</v>
+        <v>0.19948969909526221</v>
       </c>
       <c r="K95">
-        <v>7.8777081541665606</v>
+        <v>4.2205080154979919</v>
       </c>
       <c r="L95">
-        <v>12.38218976185621</v>
+        <v>7.6069757808387157</v>
       </c>
       <c r="M95">
-        <v>-0.2009155925274603</v>
+        <v>12.25904871186874</v>
       </c>
       <c r="N95">
-        <v>3.7391315654854682</v>
+        <v>0.25468205320659809</v>
       </c>
       <c r="O95">
-        <v>8.3813985315131756</v>
+        <v>4.1651602528021741</v>
       </c>
       <c r="P95">
-        <v>11.62643296198925</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>0.46158518920628899</v>
+        <v>7.5000989792865944</v>
+      </c>
+      <c r="Q95">
+        <v>12.0126678412672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>4.103904181361604</v>
+        <v>0.43283944797038398</v>
       </c>
       <c r="C96">
-        <v>7.9400452634725358</v>
+        <v>4.3885631864596384</v>
       </c>
       <c r="D96">
-        <v>11.5134432248528</v>
+        <v>8.2736936640901266</v>
       </c>
       <c r="E96">
-        <v>-0.1050280436977514</v>
+        <v>12.066527320910049</v>
       </c>
       <c r="F96">
-        <v>4.1034036084240917</v>
+        <v>0.30633209836660741</v>
       </c>
       <c r="G96">
-        <v>7.7533687381332772</v>
+        <v>4.0558827980209538</v>
       </c>
       <c r="H96">
-        <v>11.52146942307197</v>
+        <v>7.9894316303118353</v>
       </c>
       <c r="I96">
-        <v>0.23120623387930239</v>
+        <v>12.22309080546634</v>
       </c>
       <c r="J96">
-        <v>4.4874000649911769</v>
+        <v>0.49386962107352889</v>
       </c>
       <c r="K96">
-        <v>8.4494892385265477</v>
+        <v>3.520174657092237</v>
       </c>
       <c r="L96">
-        <v>11.651190994332151</v>
+        <v>8.0577258732319113</v>
       </c>
       <c r="M96">
-        <v>-0.40648750981057558</v>
+        <v>12.32668851373781</v>
       </c>
       <c r="N96">
-        <v>4.3927473459717561</v>
+        <v>-0.1775703070921695</v>
       </c>
       <c r="O96">
-        <v>7.7158507191089374</v>
+        <v>3.5136807029116368</v>
       </c>
       <c r="P96">
-        <v>12.09904115131995</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>8.5634954812783493E-2</v>
+        <v>8.094217714926609</v>
+      </c>
+      <c r="Q96">
+        <v>12.36646196484304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>3.8669400679440882</v>
+        <v>-0.21027702177796789</v>
       </c>
       <c r="C97">
-        <v>7.6731580455891866</v>
+        <v>4.1635556618398706</v>
       </c>
       <c r="D97">
-        <v>11.796573162904959</v>
+        <v>7.8123891276840443</v>
       </c>
       <c r="E97">
-        <v>-0.29994895366166768</v>
+        <v>12.30001837294437</v>
       </c>
       <c r="F97">
-        <v>3.9851423714322669</v>
+        <v>-8.3531386315839007E-2</v>
       </c>
       <c r="G97">
-        <v>7.556771160896548</v>
+        <v>3.7264902873615409</v>
       </c>
       <c r="H97">
-        <v>12.298264612431501</v>
+        <v>8.0889894191756806</v>
       </c>
       <c r="I97">
-        <v>0.4272170400993488</v>
+        <v>12.06510086862513</v>
       </c>
       <c r="J97">
-        <v>4.4412147119685024</v>
+        <v>0.48595344786877681</v>
       </c>
       <c r="K97">
-        <v>8.1269750934773271</v>
+        <v>3.8005137513604961</v>
       </c>
       <c r="L97">
-        <v>11.53956578657872</v>
+        <v>7.5360571406089001</v>
       </c>
       <c r="M97">
-        <v>-0.2113960222890007</v>
+        <v>12.22882907039569</v>
       </c>
       <c r="N97">
-        <v>3.8541194359211959</v>
+        <v>0.3340006625434756</v>
       </c>
       <c r="O97">
-        <v>7.7672889227725106</v>
+        <v>3.5187659920434071</v>
       </c>
       <c r="P97">
-        <v>11.56087495814884</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>-1.8435753979459849E-2</v>
+        <v>8.2025261836551806</v>
+      </c>
+      <c r="Q97">
+        <v>11.916168482268899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>3.852816562170561</v>
+        <v>-6.089420766740572E-3</v>
       </c>
       <c r="C98">
-        <v>7.7389516909047318</v>
+        <v>4.275411012158858</v>
       </c>
       <c r="D98">
-        <v>12.089656464806779</v>
+        <v>8.3714439259564379</v>
       </c>
       <c r="E98">
-        <v>0.29551087847014762</v>
+        <v>11.80120898794036</v>
       </c>
       <c r="F98">
-        <v>3.985263986778949</v>
+        <v>0.2754221673796361</v>
       </c>
       <c r="G98">
-        <v>8.1515513017097714</v>
+        <v>3.711420877914211</v>
       </c>
       <c r="H98">
-        <v>11.69463979364699</v>
+        <v>7.9335425061641134</v>
       </c>
       <c r="I98">
-        <v>-0.37469110056894528</v>
+        <v>12.297797062733819</v>
       </c>
       <c r="J98">
-        <v>3.7648026615858292</v>
+        <v>1.4732650184977381E-2</v>
       </c>
       <c r="K98">
-        <v>8.2370218621049727</v>
+        <v>3.7002847837320769</v>
       </c>
       <c r="L98">
-        <v>11.840560831161049</v>
+        <v>7.5313147952257999</v>
       </c>
       <c r="M98">
-        <v>0.1071853838186986</v>
+        <v>12.124812322393151</v>
       </c>
       <c r="N98">
-        <v>4.1345137518442989</v>
+        <v>0.48317051607124523</v>
       </c>
       <c r="O98">
-        <v>7.6894694282894136</v>
+        <v>4.3676276505500491</v>
       </c>
       <c r="P98">
-        <v>11.53557509503143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>-3.6516543998592721E-2</v>
+        <v>7.6299527388123227</v>
+      </c>
+      <c r="Q98">
+        <v>12.496831115885611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>3.9790057298304129</v>
+        <v>-5.7190838527555474E-3</v>
       </c>
       <c r="C99">
-        <v>8.0787554539482347</v>
+        <v>3.942160993514241</v>
       </c>
       <c r="D99">
-        <v>11.78384929750491</v>
+        <v>8.413903829492801</v>
       </c>
       <c r="E99">
-        <v>0.25981959955302958</v>
+        <v>11.63862368066486</v>
       </c>
       <c r="F99">
-        <v>4.4845243324242716</v>
+        <v>-0.13400323691966459</v>
       </c>
       <c r="G99">
-        <v>7.665086728095698</v>
+        <v>4.1482335125096874</v>
       </c>
       <c r="H99">
-        <v>12.078863528349659</v>
+        <v>7.8072223231667941</v>
       </c>
       <c r="I99">
-        <v>2.2662554897150081E-2</v>
+        <v>11.77467328196856</v>
       </c>
       <c r="J99">
-        <v>3.5226694689799278</v>
+        <v>0.1387605937876403</v>
       </c>
       <c r="K99">
-        <v>7.7776565270343738</v>
+        <v>4.263199867256775</v>
       </c>
       <c r="L99">
-        <v>11.91111270716954</v>
+        <v>7.864392743918688</v>
       </c>
       <c r="M99">
-        <v>-0.2485099590522265</v>
+        <v>11.54040738078241</v>
       </c>
       <c r="N99">
-        <v>3.737860569697987</v>
+        <v>-0.26876359213471568</v>
       </c>
       <c r="O99">
-        <v>8.0178733512380056</v>
+        <v>4.1332852305219454</v>
       </c>
       <c r="P99">
-        <v>11.90712426634081</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>-3.0703337856096469E-2</v>
+        <v>7.8022409204820917</v>
+      </c>
+      <c r="Q99">
+        <v>11.64097770332287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>3.7716401791823628</v>
+        <v>-0.44358356858554709</v>
       </c>
       <c r="C100">
-        <v>7.9705451183016223</v>
+        <v>3.6463391684125548</v>
       </c>
       <c r="D100">
-        <v>12.10055761916561</v>
+        <v>8.362802173273348</v>
       </c>
       <c r="E100">
-        <v>0.43957606558075207</v>
+        <v>12.26670814095853</v>
       </c>
       <c r="F100">
-        <v>3.8445766437652411</v>
+        <v>0.48748445374588711</v>
       </c>
       <c r="G100">
-        <v>8.3540508202825912</v>
+        <v>4.0770948915623446</v>
       </c>
       <c r="H100">
-        <v>12.400741298429979</v>
+        <v>7.62989818258976</v>
       </c>
       <c r="I100">
-        <v>-0.44488432835187641</v>
+        <v>11.67991581404357</v>
       </c>
       <c r="J100">
-        <v>4.3816932095611918</v>
+        <v>-3.1509990934672882E-2</v>
       </c>
       <c r="K100">
-        <v>8.3679217317708439</v>
+        <v>4.2895507276557536</v>
       </c>
       <c r="L100">
-        <v>11.5600264448339</v>
+        <v>8.0999073368598431</v>
       </c>
       <c r="M100">
-        <v>0.1033723471205827</v>
+        <v>11.756766511894339</v>
       </c>
       <c r="N100">
-        <v>4.1459594906583463</v>
+        <v>-0.14088333667584929</v>
       </c>
       <c r="O100">
-        <v>7.7801505483238707</v>
+        <v>3.515496243496552</v>
       </c>
       <c r="P100">
-        <v>12.38287628775617</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>0.48564291828731948</v>
+        <v>7.8201311478896702</v>
+      </c>
+      <c r="Q100">
+        <v>11.74074632244151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>4.1979334472333818</v>
+        <v>0.28593481723149589</v>
       </c>
       <c r="C101">
-        <v>8.4913720318525883</v>
+        <v>4.2094754037371613</v>
       </c>
       <c r="D101">
-        <v>12.194771809108749</v>
+        <v>7.9237295314903191</v>
       </c>
       <c r="E101">
-        <v>0.42506567689714247</v>
+        <v>12.487543270798531</v>
       </c>
       <c r="F101">
-        <v>4.2720641678016706</v>
+        <v>0.32847410544404071</v>
       </c>
       <c r="G101">
-        <v>7.6606017123653203</v>
+        <v>3.651479426732533</v>
       </c>
       <c r="H101">
-        <v>12.493859811867029</v>
+        <v>7.7313959750497538</v>
       </c>
       <c r="I101">
-        <v>-0.29679466647438751</v>
+        <v>12.00129796420789</v>
       </c>
       <c r="J101">
-        <v>4.3556028589231079</v>
+        <v>-9.0984325973485602E-2</v>
       </c>
       <c r="K101">
-        <v>8.0058846800282613</v>
+        <v>4.4371463795447017</v>
       </c>
       <c r="L101">
-        <v>11.810101841991759</v>
+        <v>7.7496578482701839</v>
       </c>
       <c r="M101">
-        <v>-1.3432202883849611E-2</v>
+        <v>11.942460022342461</v>
       </c>
       <c r="N101">
-        <v>4.3629997593126806</v>
+        <v>0.38588358015552893</v>
       </c>
       <c r="O101">
-        <v>8.2679630299438696</v>
+        <v>4.1591729814054652</v>
       </c>
       <c r="P101">
-        <v>12.46883341716304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>-0.15763241587641391</v>
+        <v>8.0270873806437546</v>
+      </c>
+      <c r="Q101">
+        <v>11.697760619638849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>4.447733954421679</v>
+        <v>0.36582226293270981</v>
       </c>
       <c r="C102">
-        <v>8.4422043034090173</v>
+        <v>3.51117790320574</v>
       </c>
       <c r="D102">
-        <v>11.68529375996906</v>
+        <v>7.8714590538720826</v>
       </c>
       <c r="E102">
-        <v>0.25616542392613528</v>
+        <v>11.54343878635561</v>
       </c>
       <c r="F102">
-        <v>3.7814485357438001</v>
+        <v>-0.37088521762701537</v>
       </c>
       <c r="G102">
-        <v>8.3562765736872944</v>
+        <v>3.7477985774969782</v>
       </c>
       <c r="H102">
-        <v>12.495687290751929</v>
+        <v>8.449276243454829</v>
       </c>
       <c r="I102">
-        <v>0.14762214462337689</v>
+        <v>11.50177816936294</v>
       </c>
       <c r="J102">
-        <v>4.1498135935533451</v>
+        <v>-8.2874356135048011E-2</v>
       </c>
       <c r="K102">
-        <v>8.3276474425978346</v>
+        <v>4.433453714963461</v>
       </c>
       <c r="L102">
-        <v>11.55053557788724</v>
+        <v>8.3120342671486238</v>
       </c>
       <c r="M102">
-        <v>-2.1663390460921361E-2</v>
+        <v>12.452651026952079</v>
       </c>
       <c r="N102">
-        <v>3.6307255098196229</v>
+        <v>-0.45480711492903719</v>
       </c>
       <c r="O102">
-        <v>8.4965233762367234</v>
+        <v>4.4099538279288373</v>
       </c>
       <c r="P102">
-        <v>11.71430403912473</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>0.3196057257586129</v>
+        <v>7.9819282430753873</v>
+      </c>
+      <c r="Q102">
+        <v>11.988363742565051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>3.542645545363484</v>
+        <v>-0.39834531688580321</v>
       </c>
       <c r="C103">
-        <v>8.021785290457041</v>
+        <v>3.5473202191478959</v>
       </c>
       <c r="D103">
-        <v>11.611115897224289</v>
+        <v>8.4532079795636204</v>
       </c>
       <c r="E103">
-        <v>-0.2157222076941987</v>
+        <v>12.077457913563331</v>
       </c>
       <c r="F103">
-        <v>3.7844204062026212</v>
+        <v>-4.4730980111685748E-3</v>
       </c>
       <c r="G103">
-        <v>8.4783078049935146</v>
+        <v>4.0577964740720232</v>
       </c>
       <c r="H103">
-        <v>12.002262368623271</v>
+        <v>7.7785842113932429</v>
       </c>
       <c r="I103">
-        <v>-0.46281976060848068</v>
+        <v>11.76771327171725</v>
       </c>
       <c r="J103">
-        <v>3.7504662588446021</v>
+        <v>0.21728979973046869</v>
       </c>
       <c r="K103">
-        <v>7.876867954284136</v>
+        <v>3.667273151872537</v>
       </c>
       <c r="L103">
-        <v>11.88675138718755</v>
+        <v>8.0636229266924193</v>
       </c>
       <c r="M103">
-        <v>0.29176937632973848</v>
+        <v>11.92139379343503</v>
       </c>
       <c r="N103">
-        <v>3.8375636373830888</v>
+        <v>-0.39427351524157073</v>
       </c>
       <c r="O103">
-        <v>8.1859357244083188</v>
+        <v>4.1394508602823583</v>
       </c>
       <c r="P103">
-        <v>12.180588898193299</v>
+        <v>8.4822897387973626</v>
+      </c>
+      <c r="Q103">
+        <v>11.955764607962969</v>
       </c>
     </row>
   </sheetData>
